--- a/study/data/stats/combined/stats-combined-classification-agreement.xlsx
+++ b/study/data/stats/combined/stats-combined-classification-agreement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="11064" windowWidth="46128" windowHeight="11100" activeTab="2"/>
+    <workbookView xWindow="-12" yWindow="4728" windowWidth="46128" windowHeight="17436"/>
   </bookViews>
   <sheets>
     <sheet name="POCMA" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="pfef_vanilla_mode1_01">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">CKFCMA!$A$1:$Q$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">POCMA!$A$1:$AC$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'POCMA TS'!$A$1:$Y$13</definedName>
     <definedName name="SUSAN_ALL">#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -268,7 +269,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="\+0.00;\-0.00;0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +368,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8.5"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -497,9 +506,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -542,6 +548,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,24 +633,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="111512960"/>
-        <c:axId val="199111808"/>
+        <c:axId val="119805056"/>
+        <c:axId val="119806592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111512960"/>
+        <c:axId val="119805056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199111808"/>
+        <c:crossAx val="119806592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199111808"/>
+        <c:axId val="119806592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,7 +658,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111512960"/>
+        <c:crossAx val="119805056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -658,7 +667,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -989,8 +998,8 @@
   </sheetPr>
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH40" sqref="AH40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1021,7 +1030,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="13"/>
@@ -1056,73 +1065,73 @@
       <c r="AC2" s="29"/>
     </row>
     <row r="3" spans="1:29" ht="52.2" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
     </row>
     <row r="4" spans="1:29" s="16" customFormat="1">
       <c r="A4" s="25"/>
       <c r="B4" s="18"/>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="H4" s="55" t="s">
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="H4" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="L4" s="55" t="s">
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="L4" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
       <c r="O4" s="18"/>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="X4" s="55" t="s">
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="X4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
       <c r="AA4" s="15"/>
       <c r="AC4" s="29"/>
     </row>
@@ -1130,66 +1139,66 @@
       <c r="A5" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="47" t="s">
+      <c r="K5" s="48"/>
+      <c r="L5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="50"/>
-      <c r="P5" s="47" t="s">
+      <c r="O5" s="49"/>
+      <c r="P5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="47" t="s">
+      <c r="Q5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="48" t="s">
+      <c r="R5" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="50"/>
-      <c r="T5" s="47" t="s">
+      <c r="S5" s="49"/>
+      <c r="T5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="47" t="s">
+      <c r="U5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="48" t="s">
+      <c r="V5" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="49"/>
-      <c r="X5" s="47" t="s">
+      <c r="W5" s="48"/>
+      <c r="X5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="47" t="s">
+      <c r="Y5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="48" t="s">
+      <c r="Z5" s="47" t="s">
         <v>24</v>
       </c>
       <c r="AA5" s="15"/>
@@ -1197,7 +1206,7 @@
     </row>
     <row r="6" spans="1:29" s="21" customFormat="1" ht="6" customHeight="1">
       <c r="A6" s="26"/>
-      <c r="B6" s="45"/>
+      <c r="B6" s="44"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
@@ -1222,7 +1231,7 @@
       <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="45"/>
       <c r="D7" s="19">
         <v>4025</v>
       </c>
@@ -1276,7 +1285,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" s="16" customFormat="1" ht="6" customHeight="1">
-      <c r="B8" s="46"/>
+      <c r="B8" s="45"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
@@ -1301,7 +1310,7 @@
       <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>5</v>
       </c>
       <c r="D9" s="19">
@@ -1363,7 +1372,7 @@
       <c r="A10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>5</v>
       </c>
       <c r="D10" s="19">
@@ -1425,7 +1434,7 @@
       <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>5</v>
       </c>
       <c r="D11" s="19">
@@ -1487,7 +1496,7 @@
       <c r="A12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>4</v>
       </c>
       <c r="D12" s="19">
@@ -1549,7 +1558,7 @@
       <c r="A13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>4</v>
       </c>
       <c r="D13" s="19">
@@ -1604,7 +1613,7 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <v>1</v>
       </c>
       <c r="D14" s="19"/>
@@ -1639,7 +1648,7 @@
       <c r="A15" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="45">
         <v>1</v>
       </c>
       <c r="D15" s="19"/>
@@ -1687,7 +1696,7 @@
       <c r="A16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="45">
         <v>1</v>
       </c>
       <c r="D16" s="19"/>
@@ -1735,7 +1744,7 @@
       <c r="A17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="45">
         <v>1</v>
       </c>
       <c r="D17" s="19"/>
@@ -1783,7 +1792,7 @@
       <c r="A18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="45">
         <v>1</v>
       </c>
       <c r="D18" s="19"/>
@@ -1818,7 +1827,7 @@
       <c r="A19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="45">
         <v>1</v>
       </c>
       <c r="D19" s="19"/>
@@ -1866,7 +1875,7 @@
       <c r="A20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="45">
         <v>1</v>
       </c>
       <c r="D20" s="19"/>
@@ -1914,7 +1923,7 @@
       <c r="A21" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="45">
         <v>1</v>
       </c>
       <c r="D21" s="19"/>
@@ -1965,7 +1974,7 @@
       <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="45">
         <v>1</v>
       </c>
       <c r="D22" s="19"/>
@@ -2003,7 +2012,7 @@
       <c r="A23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="45">
         <v>1</v>
       </c>
       <c r="D23" s="19"/>
@@ -2041,7 +2050,7 @@
       <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="45">
         <v>1</v>
       </c>
       <c r="D24" s="19"/>
@@ -2079,7 +2088,7 @@
       <c r="A25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="45">
         <v>1</v>
       </c>
       <c r="D25" s="19"/>
@@ -2117,7 +2126,7 @@
       <c r="A26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="45">
         <v>1</v>
       </c>
       <c r="D26" s="19"/>
@@ -2168,7 +2177,7 @@
       <c r="A27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="45">
         <v>1</v>
       </c>
       <c r="D27" s="19">
@@ -2219,7 +2228,7 @@
       <c r="A28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="45">
         <v>1</v>
       </c>
       <c r="D28" s="19">
@@ -2270,7 +2279,7 @@
       <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="45">
         <v>1</v>
       </c>
       <c r="D29" s="19">
@@ -2321,7 +2330,7 @@
       <c r="A30" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="45">
         <v>1</v>
       </c>
       <c r="D30" s="19"/>
@@ -2469,7 +2478,7 @@
   <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2488,7 +2497,7 @@
     <col min="12" max="12" width="8.21875" style="35" customWidth="1"/>
     <col min="13" max="13" width="1.44140625" customWidth="1"/>
     <col min="14" max="14" width="8.21875" style="37" customWidth="1"/>
-    <col min="15" max="15" width="5.77734375" style="41" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" style="56" customWidth="1"/>
     <col min="16" max="16" width="1.109375" customWidth="1"/>
     <col min="17" max="17" width="4.6640625" style="29" customWidth="1"/>
   </cols>
@@ -2512,47 +2521,47 @@
       <c r="K2" s="18"/>
       <c r="L2" s="33"/>
       <c r="N2" s="38"/>
-      <c r="O2" s="41"/>
+      <c r="O2" s="56"/>
       <c r="Q2" s="29"/>
     </row>
     <row r="3" spans="1:29" ht="97.8" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
     </row>
     <row r="4" spans="1:29" s="21" customFormat="1">
       <c r="A4" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>62</v>
       </c>
       <c r="D4" s="34" t="s">
@@ -2575,12 +2584,12 @@
       <c r="N4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="41"/>
+      <c r="O4" s="56"/>
       <c r="Q4" s="30"/>
     </row>
     <row r="5" spans="1:29" s="21" customFormat="1" ht="6" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="45"/>
+      <c r="B5" s="44"/>
       <c r="D5" s="34"/>
       <c r="F5" s="34"/>
       <c r="H5" s="34"/>
@@ -2589,14 +2598,14 @@
       <c r="K5" s="22"/>
       <c r="L5" s="34"/>
       <c r="N5" s="39"/>
-      <c r="O5" s="41"/>
+      <c r="O5" s="56"/>
       <c r="Q5" s="30"/>
     </row>
     <row r="6" spans="1:29" s="16" customFormat="1">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="45"/>
       <c r="D6" s="35">
         <v>0.75600000000000001</v>
       </c>
@@ -2613,13 +2622,13 @@
         <f>(D6+F6+J6)/3</f>
         <v>0.83599999999999997</v>
       </c>
-      <c r="O6" s="41"/>
+      <c r="O6" s="56"/>
       <c r="Q6" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:29" s="16" customFormat="1" ht="6" customHeight="1">
-      <c r="B7" s="46"/>
+      <c r="B7" s="45"/>
       <c r="D7" s="33"/>
       <c r="F7" s="33"/>
       <c r="I7" s="18"/>
@@ -2627,14 +2636,14 @@
       <c r="K7" s="18"/>
       <c r="L7" s="33"/>
       <c r="N7" s="38"/>
-      <c r="O7" s="41"/>
+      <c r="O7" s="56"/>
       <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:29" s="16" customFormat="1">
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>5</v>
       </c>
       <c r="D8" s="35">
@@ -2653,7 +2662,7 @@
         <f>(D8+F8+J8)/3</f>
         <v>0.78033333333333343</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="56">
         <f t="shared" ref="O8:O29" si="0">N8-ALLALL_CK</f>
         <v>-5.5666666666666531E-2</v>
       </c>
@@ -2665,7 +2674,7 @@
       <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>5</v>
       </c>
       <c r="D9" s="35">
@@ -2684,7 +2693,7 @@
         <f>(D9+F9+J9)/3</f>
         <v>0.67300000000000004</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="56">
         <f t="shared" si="0"/>
         <v>-0.16299999999999992</v>
       </c>
@@ -2696,7 +2705,7 @@
       <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>5</v>
       </c>
       <c r="D10" s="35">
@@ -2715,7 +2724,7 @@
         <f>(D10+F10+J10)/3</f>
         <v>0.73733333333333329</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="56">
         <f t="shared" si="0"/>
         <v>-9.866666666666668E-2</v>
       </c>
@@ -2727,7 +2736,7 @@
       <c r="A11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>4</v>
       </c>
       <c r="D11" s="35">
@@ -2746,7 +2755,7 @@
         <f>(D11+F11+J11)/3</f>
         <v>0.72366666666666679</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="56">
         <f t="shared" si="0"/>
         <v>-0.11233333333333317</v>
       </c>
@@ -2758,7 +2767,7 @@
       <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>4</v>
       </c>
       <c r="D12" s="35">
@@ -2775,7 +2784,7 @@
         <f>(D12+F12+J12)/2</f>
         <v>0.23100000000000001</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="56">
         <f t="shared" si="0"/>
         <v>-0.60499999999999998</v>
       </c>
@@ -2787,7 +2796,7 @@
       <c r="A13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>1</v>
       </c>
       <c r="D13" s="33"/>
@@ -2800,7 +2809,7 @@
         <f t="shared" ref="N13:N19" si="1">(D13+F13+J13)/B13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="56">
         <f t="shared" si="0"/>
         <v>-0.83599999999999997</v>
       </c>
@@ -2812,7 +2821,7 @@
       <c r="A14" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <v>1</v>
       </c>
       <c r="D14" s="33"/>
@@ -2827,7 +2836,7 @@
         <f t="shared" si="1"/>
         <v>0.79</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="56">
         <f t="shared" si="0"/>
         <v>-4.599999999999993E-2</v>
       </c>
@@ -2839,7 +2848,7 @@
       <c r="A15" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="45">
         <v>1</v>
       </c>
       <c r="D15" s="33"/>
@@ -2854,7 +2863,7 @@
         <f t="shared" si="1"/>
         <v>0.55500000000000005</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="56">
         <f t="shared" si="0"/>
         <v>-0.28099999999999992</v>
       </c>
@@ -2866,7 +2875,7 @@
       <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="45">
         <v>1</v>
       </c>
       <c r="D16" s="33"/>
@@ -2881,7 +2890,7 @@
         <f t="shared" si="1"/>
         <v>0.79100000000000004</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="56">
         <f t="shared" si="0"/>
         <v>-4.4999999999999929E-2</v>
       </c>
@@ -2893,7 +2902,7 @@
       <c r="A17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="45">
         <v>1</v>
       </c>
       <c r="D17" s="33"/>
@@ -2906,7 +2915,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="41">
+      <c r="O17" s="56">
         <f t="shared" si="0"/>
         <v>-0.83599999999999997</v>
       </c>
@@ -2918,7 +2927,7 @@
       <c r="A18" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="45">
         <v>1</v>
       </c>
       <c r="D18" s="33"/>
@@ -2933,7 +2942,7 @@
         <f t="shared" si="1"/>
         <v>0.86699999999999999</v>
       </c>
-      <c r="O18" s="41">
+      <c r="O18" s="56">
         <f t="shared" si="0"/>
         <v>3.1000000000000028E-2</v>
       </c>
@@ -2945,7 +2954,7 @@
       <c r="A19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="45">
         <v>1</v>
       </c>
       <c r="D19" s="33"/>
@@ -2960,7 +2969,7 @@
         <f t="shared" si="1"/>
         <v>0.54900000000000004</v>
       </c>
-      <c r="O19" s="41">
+      <c r="O19" s="56">
         <f t="shared" si="0"/>
         <v>-0.28699999999999992</v>
       </c>
@@ -2972,7 +2981,7 @@
       <c r="A20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="45">
         <v>1</v>
       </c>
       <c r="D20" s="33"/>
@@ -2988,7 +2997,7 @@
         <f t="shared" ref="N20:N29" si="2">(D20+F20+H20)/B20</f>
         <v>0.748</v>
       </c>
-      <c r="O20" s="41">
+      <c r="O20" s="56">
         <f t="shared" si="0"/>
         <v>-8.7999999999999967E-2</v>
       </c>
@@ -3000,7 +3009,7 @@
       <c r="A21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="45">
         <v>1</v>
       </c>
       <c r="D21" s="33"/>
@@ -3014,7 +3023,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="41">
+      <c r="O21" s="56">
         <f t="shared" si="0"/>
         <v>-0.83599999999999997</v>
       </c>
@@ -3026,7 +3035,7 @@
       <c r="A22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="45">
         <v>1</v>
       </c>
       <c r="D22" s="33"/>
@@ -3040,7 +3049,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="56">
         <f t="shared" si="0"/>
         <v>-0.83599999999999997</v>
       </c>
@@ -3052,7 +3061,7 @@
       <c r="A23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="45">
         <v>1</v>
       </c>
       <c r="D23" s="33"/>
@@ -3066,7 +3075,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="41">
+      <c r="O23" s="56">
         <f t="shared" si="0"/>
         <v>-0.83599999999999997</v>
       </c>
@@ -3078,7 +3087,7 @@
       <c r="A24" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="45">
         <v>1</v>
       </c>
       <c r="D24" s="33"/>
@@ -3092,7 +3101,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="41">
+      <c r="O24" s="56">
         <f t="shared" si="0"/>
         <v>-0.83599999999999997</v>
       </c>
@@ -3104,7 +3113,7 @@
       <c r="A25" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="45">
         <v>1</v>
       </c>
       <c r="D25" s="33"/>
@@ -3120,7 +3129,7 @@
         <f t="shared" si="2"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="O25" s="41">
+      <c r="O25" s="56">
         <f t="shared" si="0"/>
         <v>-7.0999999999999952E-2</v>
       </c>
@@ -3132,7 +3141,7 @@
       <c r="A26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="45">
         <v>1</v>
       </c>
       <c r="D26" s="35">
@@ -3148,7 +3157,7 @@
         <f t="shared" si="2"/>
         <v>0.47499999999999998</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="56">
         <f t="shared" si="0"/>
         <v>-0.36099999999999999</v>
       </c>
@@ -3160,7 +3169,7 @@
       <c r="A27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="45">
         <v>1</v>
       </c>
       <c r="D27" s="35">
@@ -3176,7 +3185,7 @@
         <f t="shared" si="2"/>
         <v>0.50600000000000001</v>
       </c>
-      <c r="O27" s="41">
+      <c r="O27" s="56">
         <f t="shared" si="0"/>
         <v>-0.32999999999999996</v>
       </c>
@@ -3188,7 +3197,7 @@
       <c r="A28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="45">
         <v>1</v>
       </c>
       <c r="D28" s="35">
@@ -3204,7 +3213,7 @@
         <f t="shared" si="2"/>
         <v>0.30599999999999999</v>
       </c>
-      <c r="O28" s="41">
+      <c r="O28" s="56">
         <f t="shared" si="0"/>
         <v>-0.53</v>
       </c>
@@ -3216,7 +3225,7 @@
       <c r="A29" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="45">
         <v>1</v>
       </c>
       <c r="D29" s="33"/>
@@ -3232,7 +3241,7 @@
         <f t="shared" si="2"/>
         <v>0.64200000000000002</v>
       </c>
-      <c r="O29" s="41">
+      <c r="O29" s="56">
         <f t="shared" si="0"/>
         <v>-0.19399999999999995</v>
       </c>
@@ -3251,11 +3260,11 @@
       <c r="K30" s="18"/>
       <c r="L30" s="33"/>
       <c r="N30" s="38"/>
-      <c r="O30" s="41"/>
+      <c r="O30" s="56"/>
       <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3281,7 +3290,7 @@
       <c r="L33" s="35"/>
       <c r="M33"/>
       <c r="N33" s="40"/>
-      <c r="O33" s="41"/>
+      <c r="O33" s="56"/>
       <c r="P33"/>
       <c r="Q33" s="29"/>
     </row>
@@ -3300,7 +3309,7 @@
       <c r="L34" s="35"/>
       <c r="M34"/>
       <c r="N34" s="40"/>
-      <c r="O34" s="41"/>
+      <c r="O34" s="56"/>
       <c r="P34"/>
       <c r="Q34" s="29"/>
     </row>
@@ -3342,16 +3351,19 @@
     <mergeCell ref="A3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" fitToWidth="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH20" sqref="AH20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3387,132 +3399,133 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
+    <row r="2" spans="1:29" ht="7.2" customHeight="1"/>
     <row r="3" spans="1:29" ht="49.8" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="G4" s="56" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="G4" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="K4" s="56" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="K4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="O4" s="56" t="s">
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="O4" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="S4" s="56" t="s">
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="S4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="W4" s="56" t="s">
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="W4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="51" t="s">
+      <c r="J5" s="52"/>
+      <c r="K5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="51" t="s">
+      <c r="L5" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="53"/>
-      <c r="O5" s="51" t="s">
+      <c r="N5" s="52"/>
+      <c r="O5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="51" t="s">
+      <c r="P5" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="52" t="s">
+      <c r="Q5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="53"/>
-      <c r="S5" s="51" t="s">
+      <c r="R5" s="52"/>
+      <c r="S5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="51" t="s">
+      <c r="T5" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="52" t="s">
+      <c r="U5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="53"/>
-      <c r="W5" s="51" t="s">
+      <c r="V5" s="52"/>
+      <c r="W5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="51" t="s">
+      <c r="X5" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="52" t="s">
+      <c r="Y5" s="51" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3942,7 +3955,7 @@
     <mergeCell ref="S4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/study/data/stats/combined/stats-combined-classification-agreement.xlsx
+++ b/study/data/stats/combined/stats-combined-classification-agreement.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="4728" windowWidth="46128" windowHeight="17436"/>
+    <workbookView xWindow="-12" yWindow="4728" windowWidth="46128" windowHeight="17436" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="POCMA" sheetId="2" r:id="rId1"/>
     <sheet name="CKFCMA" sheetId="5" r:id="rId2"/>
     <sheet name="POCMA TS" sheetId="4" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="ADAM_ALL">#REF!</definedName>
     <definedName name="ALLALL_CK">CKFCMA!$N$6</definedName>
@@ -540,6 +543,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -548,9 +554,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,6 +565,307 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Cohen's Kappa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> for Manual Classification Agreement</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.456719644608396E-2"/>
+          <c:y val="3.9808760654034853E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>CKFCMA!$A$6:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>ALL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>urgency</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>work-logistics</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>work-pers</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>interested</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>work-relevant</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>company-law</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>cycling</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>cycling-logistics</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>football</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>friend-group</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>golf</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>golf-logistics</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>pers-urgency</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>personal-interested</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>riding</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>riding-arrangements</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>school-importance</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>tech</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>tennis</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>tennis-arrangements</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>tennis-organising</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>work-urgency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CKFCMA!$N$6:$N$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.83599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78033333333333343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73733333333333329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72366666666666679</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="55"/>
+        <c:overlap val="-7"/>
+        <c:axId val="189073664"/>
+        <c:axId val="189076992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="189073664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000">
+                <a:latin typeface="Courier New" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" pitchFamily="49" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="189076992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="189076992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="189073664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -633,24 +937,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="119805056"/>
-        <c:axId val="119806592"/>
+        <c:axId val="120591488"/>
+        <c:axId val="120593024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119805056"/>
+        <c:axId val="120591488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119806592"/>
+        <c:crossAx val="120593024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119806592"/>
+        <c:axId val="120593024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +962,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119805056"/>
+        <c:crossAx val="120591488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -667,13 +971,48 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>990600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -706,6 +1045,102 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PFEF SRC"/>
+      <sheetName val="PFEF T"/>
+      <sheetName val="PFEF C"/>
+      <sheetName val="PFEA SRC"/>
+      <sheetName val="PFEA T"/>
+      <sheetName val="PFEA C"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>ALL</v>
+          </cell>
+          <cell r="U7">
+            <v>0.37723877925437943</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>interested</v>
+          </cell>
+          <cell r="U8">
+            <v>0.50416661987288003</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>tennis</v>
+          </cell>
+          <cell r="U9">
+            <v>0.58385827500163889</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>tennis-arrangements</v>
+          </cell>
+          <cell r="U10">
+            <v>0.29386188653629097</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>tennis-organising</v>
+          </cell>
+          <cell r="U11">
+            <v>0.57928848262966048</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>urgency</v>
+          </cell>
+          <cell r="U12">
+            <v>0.57149971405294531</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>work-logistics</v>
+          </cell>
+          <cell r="U13">
+            <v>0.73538675494728178</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>work-pers</v>
+          </cell>
+          <cell r="U14">
+            <v>0.67835317926251881</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>work-relevant</v>
+          </cell>
+          <cell r="U15">
+            <v>0.45285214433040366</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -998,7 +1433,7 @@
   </sheetPr>
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AH40" sqref="AH40"/>
     </sheetView>
   </sheetViews>
@@ -1065,73 +1500,73 @@
       <c r="AC2" s="29"/>
     </row>
     <row r="3" spans="1:29" ht="52.2" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
     </row>
     <row r="4" spans="1:29" s="16" customFormat="1">
       <c r="A4" s="25"/>
       <c r="B4" s="18"/>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="H4" s="54" t="s">
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="H4" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="L4" s="54" t="s">
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="L4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
       <c r="O4" s="18"/>
-      <c r="P4" s="54" t="s">
+      <c r="P4" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="54" t="s">
+      <c r="T4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="X4" s="54" t="s">
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="X4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
       <c r="AA4" s="15"/>
       <c r="AC4" s="29"/>
     </row>
@@ -2477,8 +2912,8 @@
   </sheetPr>
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W49" sqref="W49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2497,7 +2932,7 @@
     <col min="12" max="12" width="8.21875" style="35" customWidth="1"/>
     <col min="13" max="13" width="1.44140625" customWidth="1"/>
     <col min="14" max="14" width="8.21875" style="37" customWidth="1"/>
-    <col min="15" max="15" width="5.77734375" style="56" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" style="53" customWidth="1"/>
     <col min="16" max="16" width="1.109375" customWidth="1"/>
     <col min="17" max="17" width="4.6640625" style="29" customWidth="1"/>
   </cols>
@@ -2521,29 +2956,29 @@
       <c r="K2" s="18"/>
       <c r="L2" s="33"/>
       <c r="N2" s="38"/>
-      <c r="O2" s="56"/>
+      <c r="O2" s="53"/>
       <c r="Q2" s="29"/>
     </row>
     <row r="3" spans="1:29" ht="97.8" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
       <c r="R3" s="43"/>
       <c r="S3" s="43"/>
       <c r="T3" s="43"/>
@@ -2584,7 +3019,7 @@
       <c r="N4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="56"/>
+      <c r="O4" s="53"/>
       <c r="Q4" s="30"/>
     </row>
     <row r="5" spans="1:29" s="21" customFormat="1" ht="6" customHeight="1">
@@ -2598,7 +3033,7 @@
       <c r="K5" s="22"/>
       <c r="L5" s="34"/>
       <c r="N5" s="39"/>
-      <c r="O5" s="56"/>
+      <c r="O5" s="53"/>
       <c r="Q5" s="30"/>
     </row>
     <row r="6" spans="1:29" s="16" customFormat="1">
@@ -2622,7 +3057,7 @@
         <f>(D6+F6+J6)/3</f>
         <v>0.83599999999999997</v>
       </c>
-      <c r="O6" s="56"/>
+      <c r="O6" s="53"/>
       <c r="Q6" s="29" t="s">
         <v>10</v>
       </c>
@@ -2636,7 +3071,7 @@
       <c r="K7" s="18"/>
       <c r="L7" s="33"/>
       <c r="N7" s="38"/>
-      <c r="O7" s="56"/>
+      <c r="O7" s="53"/>
       <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:29" s="16" customFormat="1">
@@ -2662,7 +3097,7 @@
         <f>(D8+F8+J8)/3</f>
         <v>0.78033333333333343</v>
       </c>
-      <c r="O8" s="56">
+      <c r="O8" s="53">
         <f t="shared" ref="O8:O29" si="0">N8-ALLALL_CK</f>
         <v>-5.5666666666666531E-2</v>
       </c>
@@ -2693,7 +3128,7 @@
         <f>(D9+F9+J9)/3</f>
         <v>0.67300000000000004</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="53">
         <f t="shared" si="0"/>
         <v>-0.16299999999999992</v>
       </c>
@@ -2724,7 +3159,7 @@
         <f>(D10+F10+J10)/3</f>
         <v>0.73733333333333329</v>
       </c>
-      <c r="O10" s="56">
+      <c r="O10" s="53">
         <f t="shared" si="0"/>
         <v>-9.866666666666668E-2</v>
       </c>
@@ -2755,7 +3190,7 @@
         <f>(D11+F11+J11)/3</f>
         <v>0.72366666666666679</v>
       </c>
-      <c r="O11" s="56">
+      <c r="O11" s="53">
         <f t="shared" si="0"/>
         <v>-0.11233333333333317</v>
       </c>
@@ -2784,7 +3219,7 @@
         <f>(D12+F12+J12)/2</f>
         <v>0.23100000000000001</v>
       </c>
-      <c r="O12" s="56">
+      <c r="O12" s="53">
         <f t="shared" si="0"/>
         <v>-0.60499999999999998</v>
       </c>
@@ -2809,7 +3244,7 @@
         <f t="shared" ref="N13:N19" si="1">(D13+F13+J13)/B13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="56">
+      <c r="O13" s="53">
         <f t="shared" si="0"/>
         <v>-0.83599999999999997</v>
       </c>
@@ -2836,7 +3271,7 @@
         <f t="shared" si="1"/>
         <v>0.79</v>
       </c>
-      <c r="O14" s="56">
+      <c r="O14" s="53">
         <f t="shared" si="0"/>
         <v>-4.599999999999993E-2</v>
       </c>
@@ -2863,7 +3298,7 @@
         <f t="shared" si="1"/>
         <v>0.55500000000000005</v>
       </c>
-      <c r="O15" s="56">
+      <c r="O15" s="53">
         <f t="shared" si="0"/>
         <v>-0.28099999999999992</v>
       </c>
@@ -2890,7 +3325,7 @@
         <f t="shared" si="1"/>
         <v>0.79100000000000004</v>
       </c>
-      <c r="O16" s="56">
+      <c r="O16" s="53">
         <f t="shared" si="0"/>
         <v>-4.4999999999999929E-2</v>
       </c>
@@ -2915,7 +3350,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="56">
+      <c r="O17" s="53">
         <f t="shared" si="0"/>
         <v>-0.83599999999999997</v>
       </c>
@@ -2942,7 +3377,7 @@
         <f t="shared" si="1"/>
         <v>0.86699999999999999</v>
       </c>
-      <c r="O18" s="56">
+      <c r="O18" s="53">
         <f t="shared" si="0"/>
         <v>3.1000000000000028E-2</v>
       </c>
@@ -2969,7 +3404,7 @@
         <f t="shared" si="1"/>
         <v>0.54900000000000004</v>
       </c>
-      <c r="O19" s="56">
+      <c r="O19" s="53">
         <f t="shared" si="0"/>
         <v>-0.28699999999999992</v>
       </c>
@@ -2997,7 +3432,7 @@
         <f t="shared" ref="N20:N29" si="2">(D20+F20+H20)/B20</f>
         <v>0.748</v>
       </c>
-      <c r="O20" s="56">
+      <c r="O20" s="53">
         <f t="shared" si="0"/>
         <v>-8.7999999999999967E-2</v>
       </c>
@@ -3023,7 +3458,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="56">
+      <c r="O21" s="53">
         <f t="shared" si="0"/>
         <v>-0.83599999999999997</v>
       </c>
@@ -3049,7 +3484,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="56">
+      <c r="O22" s="53">
         <f t="shared" si="0"/>
         <v>-0.83599999999999997</v>
       </c>
@@ -3075,7 +3510,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="56">
+      <c r="O23" s="53">
         <f t="shared" si="0"/>
         <v>-0.83599999999999997</v>
       </c>
@@ -3101,7 +3536,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="56">
+      <c r="O24" s="53">
         <f t="shared" si="0"/>
         <v>-0.83599999999999997</v>
       </c>
@@ -3129,7 +3564,7 @@
         <f t="shared" si="2"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="O25" s="56">
+      <c r="O25" s="53">
         <f t="shared" si="0"/>
         <v>-7.0999999999999952E-2</v>
       </c>
@@ -3157,7 +3592,7 @@
         <f t="shared" si="2"/>
         <v>0.47499999999999998</v>
       </c>
-      <c r="O26" s="56">
+      <c r="O26" s="53">
         <f t="shared" si="0"/>
         <v>-0.36099999999999999</v>
       </c>
@@ -3185,7 +3620,7 @@
         <f t="shared" si="2"/>
         <v>0.50600000000000001</v>
       </c>
-      <c r="O27" s="56">
+      <c r="O27" s="53">
         <f t="shared" si="0"/>
         <v>-0.32999999999999996</v>
       </c>
@@ -3213,7 +3648,7 @@
         <f t="shared" si="2"/>
         <v>0.30599999999999999</v>
       </c>
-      <c r="O28" s="56">
+      <c r="O28" s="53">
         <f t="shared" si="0"/>
         <v>-0.53</v>
       </c>
@@ -3241,7 +3676,7 @@
         <f t="shared" si="2"/>
         <v>0.64200000000000002</v>
       </c>
-      <c r="O29" s="56">
+      <c r="O29" s="53">
         <f t="shared" si="0"/>
         <v>-0.19399999999999995</v>
       </c>
@@ -3260,7 +3695,7 @@
       <c r="K30" s="18"/>
       <c r="L30" s="33"/>
       <c r="N30" s="38"/>
-      <c r="O30" s="56"/>
+      <c r="O30" s="53"/>
       <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17">
@@ -3290,7 +3725,7 @@
       <c r="L33" s="35"/>
       <c r="M33"/>
       <c r="N33" s="40"/>
-      <c r="O33" s="56"/>
+      <c r="O33" s="53"/>
       <c r="P33"/>
       <c r="Q33" s="29"/>
     </row>
@@ -3309,7 +3744,7 @@
       <c r="L34" s="35"/>
       <c r="M34"/>
       <c r="N34" s="40"/>
-      <c r="O34" s="56"/>
+      <c r="O34" s="53"/>
       <c r="P34"/>
       <c r="Q34" s="29"/>
     </row>
@@ -3351,7 +3786,8 @@
     <mergeCell ref="A3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToWidth="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3401,69 +3837,69 @@
     </row>
     <row r="2" spans="1:29" ht="7.2" customHeight="1"/>
     <row r="3" spans="1:29" ht="49.8" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
       <c r="Z3" s="43"/>
       <c r="AA3" s="43"/>
       <c r="AB3" s="43"/>
       <c r="AC3" s="43"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="G4" s="55" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="G4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="K4" s="55" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="K4" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="O4" s="55" t="s">
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="O4" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="S4" s="55" t="s">
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="S4" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="W4" s="55" t="s">
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="W4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1">
       <c r="A5" s="1" t="s">

--- a/study/data/stats/combined/stats-combined-classification-agreement.xlsx
+++ b/study/data/stats/combined/stats-combined-classification-agreement.xlsx
@@ -4,16 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="4728" windowWidth="46128" windowHeight="17436" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="4728" windowWidth="46128" windowHeight="17436" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="POCMA" sheetId="2" r:id="rId1"/>
     <sheet name="CKFCMA" sheetId="5" r:id="rId2"/>
     <sheet name="POCMA TS" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="ADAM_ALL">#REF!</definedName>
     <definedName name="ALLALL_CK">CKFCMA!$N$6</definedName>
@@ -622,7 +619,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.456719644608396E-2"/>
+          <c:x val="5.4567196446083981E-2"/>
           <c:y val="3.9808760654034853E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -812,11 +809,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="189073664"/>
-        <c:axId val="189076992"/>
+        <c:axId val="127212928"/>
+        <c:axId val="127227008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189073664"/>
+        <c:axId val="127212928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,14 +832,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189076992"/>
+        <c:crossAx val="127227008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189076992"/>
+        <c:axId val="127227008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +847,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189073664"/>
+        <c:crossAx val="127212928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -859,7 +856,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -877,6 +874,14 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>'POCMA TS'!$A$7:$A$13</c:f>
@@ -937,24 +942,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120591488"/>
-        <c:axId val="120593024"/>
+        <c:axId val="127241216"/>
+        <c:axId val="127759104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120591488"/>
+        <c:axId val="127241216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120593024"/>
+        <c:crossAx val="127759104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120593024"/>
+        <c:axId val="127759104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,7 +967,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120591488"/>
+        <c:crossAx val="127241216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -971,7 +976,133 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'POCMA TS'!$A$7:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'POCMA TS'!$Y$7:$Y$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.90715456034953579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91616208663251053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93290841999329088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94847528916929547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93675417661097848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94495884773662553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.952947539210384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="132528000"/>
+        <c:axId val="132529536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="132528000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132529536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="132529536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.96000000000000008"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132528000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1044,103 +1175,37 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PFEF SRC"/>
-      <sheetName val="PFEF T"/>
-      <sheetName val="PFEF C"/>
-      <sheetName val="PFEA SRC"/>
-      <sheetName val="PFEA T"/>
-      <sheetName val="PFEA C"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>ALL</v>
-          </cell>
-          <cell r="U7">
-            <v>0.37723877925437943</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>interested</v>
-          </cell>
-          <cell r="U8">
-            <v>0.50416661987288003</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>tennis</v>
-          </cell>
-          <cell r="U9">
-            <v>0.58385827500163889</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>tennis-arrangements</v>
-          </cell>
-          <cell r="U10">
-            <v>0.29386188653629097</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>tennis-organising</v>
-          </cell>
-          <cell r="U11">
-            <v>0.57928848262966048</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>urgency</v>
-          </cell>
-          <cell r="U12">
-            <v>0.57149971405294531</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>work-logistics</v>
-          </cell>
-          <cell r="U13">
-            <v>0.73538675494728178</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>work-pers</v>
-          </cell>
-          <cell r="U14">
-            <v>0.67835317926251881</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>work-relevant</v>
-          </cell>
-          <cell r="U15">
-            <v>0.45285214433040366</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2912,7 +2977,7 @@
   </sheetPr>
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W49" sqref="W49"/>
     </sheetView>
   </sheetViews>
@@ -3798,8 +3863,8 @@
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:Y3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4391,7 +4456,7 @@
     <mergeCell ref="S4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/study/data/stats/combined/stats-combined-classification-agreement.xlsx
+++ b/study/data/stats/combined/stats-combined-classification-agreement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="4728" windowWidth="46128" windowHeight="17436" activeTab="2"/>
+    <workbookView xWindow="-12" yWindow="1584" windowWidth="46128" windowHeight="15036" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="POCMA" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>David Goddard</author>
+  </authors>
+  <commentList>
+    <comment ref="D12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>David Goddard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This value appears anomalous, but is correctly calculated: of 1006 records in the soruce data set for work-relevant for persona susan, zero had a classification_orig value of 'relevant' - all were 'not'.  Hence kappa score is zero for this item</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="76">
   <si>
@@ -269,7 +303,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="\+0.00;\-0.00;0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +410,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -406,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -419,7 +466,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,7 +473,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -619,7 +664,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.4567196446083981E-2"/>
+          <c:x val="5.4567196446084015E-2"/>
           <c:y val="3.9808760654034853E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -735,25 +780,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.83599999999999997</c:v>
+                  <c:v>0.83059999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78033333333333343</c:v>
+                  <c:v>0.7088000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67300000000000004</c:v>
+                  <c:v>0.63619999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73733333333333329</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72366666666666679</c:v>
+                  <c:v>0.71450000000000014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23100000000000001</c:v>
+                  <c:v>0.47700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.60599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.79</c:v>
@@ -765,7 +810,7 @@
                   <c:v>0.79100000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.74299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.86699999999999999</c:v>
@@ -777,16 +822,16 @@
                   <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.69599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.72499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.63800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.42699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.76500000000000001</c:v>
@@ -809,11 +854,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="127212928"/>
-        <c:axId val="127227008"/>
+        <c:axId val="46565632"/>
+        <c:axId val="46956544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127212928"/>
+        <c:axId val="46565632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,14 +877,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127227008"/>
+        <c:crossAx val="46956544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127227008"/>
+        <c:axId val="46956544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +892,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127212928"/>
+        <c:crossAx val="46565632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -856,7 +901,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -918,56 +963,58 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.90715456034953579</c:v>
+                  <c:v>0.9095880422894641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91616208663251053</c:v>
+                  <c:v>0.90670640834575256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93290841999329088</c:v>
+                  <c:v>0.9219190968955786</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94847528916929547</c:v>
+                  <c:v>0.93648816936488166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93675417661097848</c:v>
+                  <c:v>0.92953085458438778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94495884773662553</c:v>
+                  <c:v>0.93679291687161825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.952947539210384</c:v>
+                  <c:v>0.94934210526315788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127241216"/>
-        <c:axId val="127759104"/>
+        <c:axId val="47302528"/>
+        <c:axId val="47323392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127241216"/>
+        <c:axId val="47302528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127759104"/>
+        <c:crossAx val="47323392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127759104"/>
+        <c:axId val="47323392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.95500000000000018"/>
+          <c:min val="0.9"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127241216"/>
+        <c:crossAx val="47302528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -976,7 +1023,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -994,12 +1041,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:solidFill>
             <a:ln w="38100"/>
           </c:spPr>
           <c:marker>
@@ -1041,59 +1082,59 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.90715456034953579</c:v>
+                  <c:v>0.9095880422894641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91616208663251053</c:v>
+                  <c:v>0.90670640834575256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93290841999329088</c:v>
+                  <c:v>0.9219190968955786</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94847528916929547</c:v>
+                  <c:v>0.93648816936488166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93675417661097848</c:v>
+                  <c:v>0.92953085458438778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94495884773662553</c:v>
+                  <c:v>0.93679291687161825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.952947539210384</c:v>
+                  <c:v>0.94934210526315788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="132528000"/>
-        <c:axId val="132529536"/>
+        <c:axId val="67124224"/>
+        <c:axId val="67273472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132528000"/>
+        <c:axId val="67124224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132529536"/>
+        <c:crossAx val="67273472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132529536"/>
+        <c:axId val="67273472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.96000000000000008"/>
+          <c:max val="0.96000000000000052"/>
           <c:min val="0.9"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132528000"/>
+        <c:crossAx val="67124224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1102,7 +1143,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1118,8 +1159,8 @@
       <xdr:rowOff>990600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
@@ -1498,1387 +1539,1586 @@
   </sheetPr>
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH40" sqref="AH40"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="26" customWidth="1"/>
     <col min="2" max="2" width="3.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="1.44140625" customWidth="1"/>
     <col min="4" max="5" width="8.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" style="6" customWidth="1"/>
     <col min="7" max="7" width="1.44140625" customWidth="1"/>
     <col min="8" max="9" width="8.21875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" style="6" customWidth="1"/>
     <col min="11" max="11" width="1.44140625" customWidth="1"/>
     <col min="12" max="13" width="8.21875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.21875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" style="6" customWidth="1"/>
     <col min="15" max="15" width="1.44140625" style="2" customWidth="1"/>
     <col min="16" max="17" width="8.21875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="8.21875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="8.21875" style="6" customWidth="1"/>
     <col min="19" max="19" width="1.44140625" style="2" customWidth="1"/>
     <col min="20" max="21" width="8.21875" style="4" customWidth="1"/>
-    <col min="22" max="22" width="8.21875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="8.21875" style="6" customWidth="1"/>
     <col min="23" max="23" width="1.44140625" customWidth="1"/>
     <col min="24" max="25" width="8.21875" style="4" customWidth="1"/>
-    <col min="26" max="26" width="8.21875" style="7" customWidth="1"/>
-    <col min="27" max="27" width="4.33203125" style="15" customWidth="1"/>
+    <col min="26" max="26" width="8.21875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="4.33203125" style="13" customWidth="1"/>
     <col min="28" max="28" width="1.109375" customWidth="1"/>
-    <col min="29" max="29" width="4.6640625" style="29" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:29" s="16" customFormat="1" ht="9" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="20"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="15"/>
-      <c r="AC2" s="29"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:29" s="14" customFormat="1" ht="9" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="18"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="13"/>
+      <c r="AC2" s="27"/>
     </row>
     <row r="3" spans="1:29" ht="52.2" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-    </row>
-    <row r="4" spans="1:29" s="16" customFormat="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="18"/>
-      <c r="D4" s="55" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+    </row>
+    <row r="4" spans="1:29" s="14" customFormat="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="16"/>
+      <c r="D4" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="H4" s="55" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="H4" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="L4" s="55" t="s">
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="L4" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="55" t="s">
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="55" t="s">
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="X4" s="55" t="s">
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="X4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="15"/>
-      <c r="AC4" s="29"/>
-    </row>
-    <row r="5" spans="1:29" s="21" customFormat="1">
-      <c r="A5" s="26" t="s">
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="13"/>
+      <c r="AC4" s="27"/>
+    </row>
+    <row r="5" spans="1:29" s="19" customFormat="1">
+      <c r="A5" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="46" t="s">
+      <c r="G5" s="46"/>
+      <c r="H5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="46" t="s">
+      <c r="K5" s="46"/>
+      <c r="L5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="49"/>
-      <c r="P5" s="46" t="s">
+      <c r="O5" s="47"/>
+      <c r="P5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="46" t="s">
+      <c r="Q5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="49"/>
-      <c r="T5" s="46" t="s">
+      <c r="S5" s="47"/>
+      <c r="T5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="46" t="s">
+      <c r="U5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="47" t="s">
+      <c r="V5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="48"/>
-      <c r="X5" s="46" t="s">
+      <c r="W5" s="46"/>
+      <c r="X5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="46" t="s">
+      <c r="Y5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="47" t="s">
+      <c r="Z5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="AA5" s="15"/>
-      <c r="AC5" s="30"/>
-    </row>
-    <row r="6" spans="1:29" s="21" customFormat="1" ht="6" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="44"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="24"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="15"/>
-      <c r="AC6" s="30"/>
-    </row>
-    <row r="7" spans="1:29" s="16" customFormat="1">
-      <c r="A7" s="16" t="s">
+      <c r="AA5" s="13"/>
+      <c r="AC5" s="28"/>
+    </row>
+    <row r="6" spans="1:29" s="19" customFormat="1" ht="6" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="42"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="22"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="13"/>
+      <c r="AC6" s="28"/>
+    </row>
+    <row r="7" spans="1:29" s="14" customFormat="1">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="D7" s="19">
+      <c r="B7" s="43"/>
+      <c r="D7" s="17">
         <v>4025</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>3648</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <f>E7/D7</f>
         <v>0.90633540372670807</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <v>12021</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="17">
         <v>11344</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <f>I7/H7</f>
         <v>0.94368189002578817</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18">
+      <c r="L7" s="16">
+        <v>3876</v>
+      </c>
+      <c r="M7" s="16">
+        <v>3535</v>
+      </c>
+      <c r="N7" s="18">
+        <f>M7/L7</f>
+        <v>0.91202270381836947</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16">
         <v>964</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="16">
         <v>908</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="18">
         <f>Q7/P7</f>
         <v>0.94190871369294604</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="20"/>
-      <c r="X7" s="19">
-        <f>D7+H7+P7</f>
-        <v>17010</v>
-      </c>
-      <c r="Y7" s="19">
-        <f>E7+I7+Q7</f>
-        <v>15900</v>
-      </c>
-      <c r="Z7" s="20">
+      <c r="S7" s="16"/>
+      <c r="T7" s="17">
+        <v>5157</v>
+      </c>
+      <c r="U7" s="17">
+        <v>4726</v>
+      </c>
+      <c r="V7" s="18">
+        <f>U7/T7</f>
+        <v>0.91642427768082213</v>
+      </c>
+      <c r="X7" s="17">
+        <f>SUM(D7,H7,L7,P7,T7)</f>
+        <v>26043</v>
+      </c>
+      <c r="Y7" s="17">
+        <f>SUM(E7,I7,M7,Q7,U7)</f>
+        <v>24161</v>
+      </c>
+      <c r="Z7" s="18">
         <f>Y7/X7</f>
-        <v>0.93474426807760136</v>
-      </c>
-      <c r="AA7" s="15"/>
-      <c r="AC7" s="29" t="s">
+        <v>0.92773489997312142</v>
+      </c>
+      <c r="AA7" s="13"/>
+      <c r="AC7" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="16" customFormat="1" ht="6" customHeight="1">
-      <c r="B8" s="45"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="20"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="15"/>
-      <c r="AC8" s="29"/>
-    </row>
-    <row r="9" spans="1:29" s="16" customFormat="1">
-      <c r="A9" s="17" t="s">
+    <row r="8" spans="1:29" s="14" customFormat="1" ht="6" customHeight="1">
+      <c r="B8" s="43"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="18"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="13"/>
+      <c r="AC8" s="27"/>
+    </row>
+    <row r="9" spans="1:29" s="14" customFormat="1">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="43">
         <v>5</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <v>503</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>499</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <f t="shared" ref="F9:F29" si="0">E9/D9</f>
         <v>0.99204771371769385</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <v>1277</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <v>1259</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <f t="shared" ref="J9:J30" si="1">I9/H9</f>
         <v>0.98590446358653094</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18">
+      <c r="L9" s="16">
+        <v>646</v>
+      </c>
+      <c r="M9" s="16">
+        <v>609</v>
+      </c>
+      <c r="N9" s="18">
+        <f t="shared" ref="N9:N22" si="2">M9/L9</f>
+        <v>0.94272445820433437</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16">
         <v>135</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="16">
         <v>133</v>
       </c>
-      <c r="R9" s="20">
-        <f t="shared" ref="R9:R20" si="2">Q9/P9</f>
+      <c r="R9" s="18">
+        <f t="shared" ref="R9:R20" si="3">Q9/P9</f>
         <v>0.98518518518518516</v>
       </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="20"/>
-      <c r="X9" s="19">
-        <f t="shared" ref="X9:X20" si="3">D9+H9+P9</f>
-        <v>1915</v>
-      </c>
-      <c r="Y9" s="19">
-        <f t="shared" ref="Y9:Y20" si="4">E9+I9+Q9</f>
-        <v>1891</v>
-      </c>
-      <c r="Z9" s="20">
-        <f t="shared" ref="Z9:Z13" si="5">Y9/X9</f>
-        <v>0.98746736292428194</v>
-      </c>
-      <c r="AA9" s="15">
-        <f>100*(Z9-ALLALL_PERC)</f>
-        <v>5.2723094846680585</v>
-      </c>
-      <c r="AC9" s="31" t="s">
+      <c r="S9" s="16"/>
+      <c r="T9" s="17">
+        <v>573</v>
+      </c>
+      <c r="U9" s="17">
+        <v>540</v>
+      </c>
+      <c r="V9" s="18">
+        <f t="shared" ref="V9:V25" si="4">U9/T9</f>
+        <v>0.94240837696335078</v>
+      </c>
+      <c r="X9" s="17">
+        <f t="shared" ref="X9:X30" si="5">SUM(D9,H9,L9,P9,T9)</f>
+        <v>3134</v>
+      </c>
+      <c r="Y9" s="17">
+        <f t="shared" ref="Y9:Y30" si="6">SUM(E9,I9,M9,Q9,U9)</f>
+        <v>3040</v>
+      </c>
+      <c r="Z9" s="18">
+        <f t="shared" ref="Z9:Z30" si="7">Y9/X9</f>
+        <v>0.97000638162093167</v>
+      </c>
+      <c r="AA9" s="13">
+        <f t="shared" ref="AA9:AA30" si="8">100*(Z9-ALLALL_PERC)</f>
+        <v>4.227148164781025</v>
+      </c>
+      <c r="AC9" s="29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="16" customFormat="1">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:29" s="14" customFormat="1">
+      <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="43">
         <v>5</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="17">
         <v>503</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <v>482</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <f t="shared" si="0"/>
         <v>0.95825049701789267</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <v>1277</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="17">
         <v>1250</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="18">
         <f t="shared" si="1"/>
         <v>0.97885669537979636</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18">
+      <c r="L10" s="16">
+        <v>646</v>
+      </c>
+      <c r="M10" s="16">
+        <v>622</v>
+      </c>
+      <c r="N10" s="18">
+        <f t="shared" si="2"/>
+        <v>0.96284829721362231</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16">
         <v>135</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="16">
         <v>131</v>
       </c>
-      <c r="R10" s="20">
-        <f t="shared" si="2"/>
+      <c r="R10" s="18">
+        <f t="shared" si="3"/>
         <v>0.97037037037037033</v>
       </c>
-      <c r="S10" s="18"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="20"/>
-      <c r="X10" s="19">
-        <f t="shared" si="3"/>
-        <v>1915</v>
-      </c>
-      <c r="Y10" s="19">
+      <c r="S10" s="16"/>
+      <c r="T10" s="17">
+        <v>573</v>
+      </c>
+      <c r="U10" s="17">
+        <v>545</v>
+      </c>
+      <c r="V10" s="18">
         <f t="shared" si="4"/>
-        <v>1863</v>
-      </c>
-      <c r="Z10" s="20">
+        <v>0.9511343804537522</v>
+      </c>
+      <c r="X10" s="17">
         <f t="shared" si="5"/>
-        <v>0.97284595300261101</v>
-      </c>
-      <c r="AA10" s="15">
-        <f>100*(Z10-ALLALL_PERC)</f>
-        <v>3.8101684925009649</v>
-      </c>
-      <c r="AC10" s="31" t="s">
+        <v>3134</v>
+      </c>
+      <c r="Y10" s="17">
+        <f t="shared" si="6"/>
+        <v>3030</v>
+      </c>
+      <c r="Z10" s="18">
+        <f t="shared" si="7"/>
+        <v>0.96681557115507344</v>
+      </c>
+      <c r="AA10" s="13">
+        <f t="shared" si="8"/>
+        <v>3.908067118195202</v>
+      </c>
+      <c r="AC10" s="29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="16" customFormat="1">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:29" s="14" customFormat="1">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="43">
         <v>5</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <v>503</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <v>423</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="18">
         <f t="shared" si="0"/>
         <v>0.84095427435387671</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <v>1277</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <v>1210</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <f t="shared" si="1"/>
         <v>0.9475332811276429</v>
       </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18">
+      <c r="L11" s="16">
+        <v>646</v>
+      </c>
+      <c r="M11" s="16">
+        <v>586</v>
+      </c>
+      <c r="N11" s="18">
+        <f t="shared" si="2"/>
+        <v>0.90712074303405577</v>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16">
         <v>135</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="16">
         <v>121</v>
       </c>
-      <c r="R11" s="20">
-        <f t="shared" si="2"/>
+      <c r="R11" s="18">
+        <f t="shared" si="3"/>
         <v>0.89629629629629626</v>
       </c>
-      <c r="S11" s="18"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="20"/>
-      <c r="X11" s="19">
-        <f t="shared" si="3"/>
-        <v>1915</v>
-      </c>
-      <c r="Y11" s="19">
+      <c r="S11" s="16"/>
+      <c r="T11" s="17">
+        <v>573</v>
+      </c>
+      <c r="U11" s="17">
+        <v>511</v>
+      </c>
+      <c r="V11" s="18">
         <f t="shared" si="4"/>
-        <v>1754</v>
-      </c>
-      <c r="Z11" s="20">
+        <v>0.89179755671902272</v>
+      </c>
+      <c r="X11" s="17">
         <f t="shared" si="5"/>
-        <v>0.91592689295039165</v>
-      </c>
-      <c r="AA11" s="15">
-        <f>100*(Z11-ALLALL_PERC)</f>
-        <v>-1.8817375127209712</v>
-      </c>
-      <c r="AC11" s="31" t="s">
+        <v>3134</v>
+      </c>
+      <c r="Y11" s="17">
+        <f t="shared" si="6"/>
+        <v>2851</v>
+      </c>
+      <c r="Z11" s="18">
+        <f t="shared" si="7"/>
+        <v>0.90970006381620927</v>
+      </c>
+      <c r="AA11" s="13">
+        <f t="shared" si="8"/>
+        <v>-1.8034836156912148</v>
+      </c>
+      <c r="AC11" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="16" customFormat="1">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:29" s="14" customFormat="1">
+      <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="43">
         <v>4</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <v>504</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>361</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <f t="shared" si="0"/>
         <v>0.71626984126984128</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <v>1277</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <v>1186</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="18">
         <f t="shared" si="1"/>
         <v>0.92873923257635083</v>
       </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18">
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16">
         <v>136</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="16">
         <v>122</v>
       </c>
-      <c r="R12" s="20">
-        <f t="shared" si="2"/>
+      <c r="R12" s="18">
+        <f t="shared" si="3"/>
         <v>0.8970588235294118</v>
       </c>
-      <c r="S12" s="18"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="20"/>
-      <c r="X12" s="19">
-        <f t="shared" si="3"/>
-        <v>1917</v>
-      </c>
-      <c r="Y12" s="19">
+      <c r="S12" s="16"/>
+      <c r="T12" s="17">
+        <v>573</v>
+      </c>
+      <c r="U12" s="17">
+        <v>462</v>
+      </c>
+      <c r="V12" s="18">
         <f t="shared" si="4"/>
-        <v>1669</v>
-      </c>
-      <c r="Z12" s="20">
+        <v>0.80628272251308897</v>
+      </c>
+      <c r="X12" s="17">
         <f t="shared" si="5"/>
-        <v>0.87063119457485649</v>
-      </c>
-      <c r="AA12" s="15">
-        <f>100*(Z12-ALLALL_PERC)</f>
-        <v>-6.4113073502744866</v>
-      </c>
-      <c r="AC12" s="31" t="s">
+        <v>2490</v>
+      </c>
+      <c r="Y12" s="17">
+        <f t="shared" si="6"/>
+        <v>2131</v>
+      </c>
+      <c r="Z12" s="18">
+        <f t="shared" si="7"/>
+        <v>0.85582329317269079</v>
+      </c>
+      <c r="AA12" s="13">
+        <f t="shared" si="8"/>
+        <v>-7.1911606800430627</v>
+      </c>
+      <c r="AC12" s="29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="16" customFormat="1">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:29" s="14" customFormat="1">
+      <c r="A13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="43">
         <v>4</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>503</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>462</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="18">
         <f t="shared" si="0"/>
         <v>0.91848906560636179</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <v>1277</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="17">
         <v>1134</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="18">
         <f t="shared" si="1"/>
         <v>0.88801879404855133</v>
       </c>
-      <c r="O13" s="18"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="20"/>
-      <c r="X13" s="19">
-        <f t="shared" si="3"/>
-        <v>1780</v>
-      </c>
-      <c r="Y13" s="19">
+      <c r="L13" s="16">
+        <v>646</v>
+      </c>
+      <c r="M13" s="16">
+        <v>576</v>
+      </c>
+      <c r="N13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.89164086687306499</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="17">
+        <v>573</v>
+      </c>
+      <c r="U13" s="17">
+        <v>527</v>
+      </c>
+      <c r="V13" s="18">
         <f t="shared" si="4"/>
-        <v>1596</v>
-      </c>
-      <c r="Z13" s="20">
+        <v>0.91972076788830714</v>
+      </c>
+      <c r="X13" s="17">
         <f t="shared" si="5"/>
-        <v>0.89662921348314606</v>
-      </c>
-      <c r="AA13" s="15">
-        <f>100*(Z13-ALLALL_PERC)</f>
-        <v>-3.81150545944553</v>
-      </c>
-      <c r="AC13" s="31" t="s">
+        <v>2999</v>
+      </c>
+      <c r="Y13" s="17">
+        <f t="shared" si="6"/>
+        <v>2699</v>
+      </c>
+      <c r="Z13" s="18">
+        <f t="shared" si="7"/>
+        <v>0.89996665555185063</v>
+      </c>
+      <c r="AA13" s="13">
+        <f t="shared" si="8"/>
+        <v>-2.7768244421270794</v>
+      </c>
+      <c r="AC13" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="16" customFormat="1">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:29" s="14" customFormat="1">
+      <c r="A14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="43">
         <v>1</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="20"/>
-      <c r="X14" s="19">
-        <f t="shared" si="3"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="17">
+        <v>573</v>
+      </c>
+      <c r="U14" s="17">
+        <v>539</v>
+      </c>
+      <c r="V14" s="18">
+        <f t="shared" si="4"/>
+        <v>0.94066317626527052</v>
+      </c>
+      <c r="X14" s="17">
+        <f t="shared" si="5"/>
+        <v>573</v>
+      </c>
+      <c r="Y14" s="17">
+        <f t="shared" si="6"/>
+        <v>539</v>
+      </c>
+      <c r="Z14" s="18">
+        <f t="shared" si="7"/>
+        <v>0.94066317626527052</v>
+      </c>
+      <c r="AA14" s="13">
+        <f t="shared" si="8"/>
+        <v>1.2928276292149099</v>
+      </c>
+      <c r="AC14" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="14" customFormat="1">
+      <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="Y14" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="15"/>
-      <c r="AC14" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" s="16" customFormat="1">
-      <c r="A15" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="45">
+      <c r="B15" s="43">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="H15" s="19">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="H15" s="17">
         <v>1277</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="17">
         <v>1180</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="18">
         <f t="shared" si="1"/>
         <v>0.92404072043852781</v>
       </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="20"/>
-      <c r="X15" s="19">
-        <f t="shared" si="3"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="18"/>
+      <c r="X15" s="17">
+        <f t="shared" si="5"/>
         <v>1277</v>
       </c>
-      <c r="Y15" s="19">
-        <f t="shared" si="4"/>
+      <c r="Y15" s="17">
+        <f t="shared" si="6"/>
         <v>1180</v>
       </c>
-      <c r="Z15" s="20">
-        <f t="shared" ref="Z15:Z16" si="6">Y15/X15</f>
+      <c r="Z15" s="18">
+        <f t="shared" si="7"/>
         <v>0.92404072043852781</v>
       </c>
-      <c r="AA15" s="15">
-        <f>100*(Z15-ALLALL_PERC)</f>
-        <v>-1.0703547639073552</v>
-      </c>
-      <c r="AC15" s="31" t="s">
+      <c r="AA15" s="13">
+        <f t="shared" si="8"/>
+        <v>-0.36941795345936113</v>
+      </c>
+      <c r="AC15" s="29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="16" customFormat="1">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:29" s="14" customFormat="1">
+      <c r="A16" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="43">
         <v>1</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="H16" s="19">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="H16" s="17">
         <v>529</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="17">
         <v>492</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="18">
         <f t="shared" si="1"/>
         <v>0.93005671077504726</v>
       </c>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="20"/>
-      <c r="X16" s="19">
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="18"/>
+      <c r="X16" s="17">
+        <f t="shared" si="5"/>
+        <v>529</v>
+      </c>
+      <c r="Y16" s="17">
+        <f t="shared" si="6"/>
+        <v>492</v>
+      </c>
+      <c r="Z16" s="18">
+        <f t="shared" si="7"/>
+        <v>0.93005671077504726</v>
+      </c>
+      <c r="AA16" s="13">
+        <f t="shared" si="8"/>
+        <v>0.23218108019258388</v>
+      </c>
+      <c r="AC16" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="14" customFormat="1">
+      <c r="A17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="43">
+        <v>1</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16">
+        <v>141</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>127</v>
+      </c>
+      <c r="R17" s="18">
         <f t="shared" si="3"/>
-        <v>529</v>
-      </c>
-      <c r="Y16" s="19">
-        <f t="shared" si="4"/>
-        <v>492</v>
-      </c>
-      <c r="Z16" s="20">
+        <v>0.900709219858156</v>
+      </c>
+      <c r="S17" s="16"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="18"/>
+      <c r="X17" s="17">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="Y17" s="17">
         <f t="shared" si="6"/>
-        <v>0.93005671077504726</v>
-      </c>
-      <c r="AA16" s="15">
-        <f>100*(Z16-ALLALL_PERC)</f>
-        <v>-0.46875573025541017</v>
-      </c>
-      <c r="AC16" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" s="16" customFormat="1">
-      <c r="A17" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="45">
+        <v>127</v>
+      </c>
+      <c r="Z17" s="18">
+        <f t="shared" si="7"/>
+        <v>0.900709219858156</v>
+      </c>
+      <c r="AA17" s="13">
+        <f t="shared" si="8"/>
+        <v>-2.7025680114965422</v>
+      </c>
+      <c r="AC17" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="14" customFormat="1">
+      <c r="A18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="43">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="L18" s="16">
+        <v>646</v>
+      </c>
+      <c r="M18" s="16">
+        <v>575</v>
+      </c>
+      <c r="N18" s="18">
+        <f t="shared" si="2"/>
+        <v>0.8900928792569659</v>
+      </c>
+      <c r="O18" s="16"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="18"/>
+      <c r="X18" s="17">
+        <f t="shared" si="5"/>
+        <v>646</v>
+      </c>
+      <c r="Y18" s="17">
+        <f t="shared" si="6"/>
+        <v>575</v>
+      </c>
+      <c r="Z18" s="18">
+        <f t="shared" si="7"/>
+        <v>0.8900928792569659</v>
+      </c>
+      <c r="AA18" s="13">
+        <f t="shared" si="8"/>
+        <v>-3.7642020716155522</v>
+      </c>
+      <c r="AC18" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="14" customFormat="1">
+      <c r="A19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="43">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16">
         <v>141</v>
       </c>
-      <c r="Q17" s="18">
-        <v>127</v>
-      </c>
-      <c r="R17" s="20">
-        <f t="shared" si="2"/>
-        <v>0.900709219858156</v>
-      </c>
-      <c r="S17" s="18"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="20"/>
-      <c r="X17" s="19">
+      <c r="Q19" s="16">
+        <v>139</v>
+      </c>
+      <c r="R19" s="18">
         <f t="shared" si="3"/>
+        <v>0.98581560283687941</v>
+      </c>
+      <c r="S19" s="16"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="18"/>
+      <c r="X19" s="17">
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
-      <c r="Y17" s="19">
-        <f t="shared" si="4"/>
-        <v>127</v>
-      </c>
-      <c r="Z17" s="20">
-        <f t="shared" ref="Z17" si="7">Y17/X17</f>
-        <v>0.900709219858156</v>
-      </c>
-      <c r="AA17" s="15">
-        <f>100*(Z17-ALLALL_PERC)</f>
-        <v>-3.4035048219445363</v>
-      </c>
-      <c r="AC17" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" s="16" customFormat="1">
-      <c r="A18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="45">
+      <c r="Y19" s="17">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="Z19" s="18">
+        <f t="shared" si="7"/>
+        <v>0.98581560283687941</v>
+      </c>
+      <c r="AA19" s="13">
+        <f t="shared" si="8"/>
+        <v>5.8080702863757994</v>
+      </c>
+      <c r="AC19" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="14" customFormat="1">
+      <c r="A20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="43">
         <v>1</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="20"/>
-      <c r="X18" s="19">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16">
+        <v>141</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>135</v>
+      </c>
+      <c r="R20" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="15"/>
-      <c r="AC18" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" s="16" customFormat="1">
-      <c r="A19" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="45">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="S20" s="16"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="18"/>
+      <c r="X20" s="17">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="Y20" s="17">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="Z20" s="18">
+        <f t="shared" si="7"/>
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="AA20" s="13">
+        <f t="shared" si="8"/>
+        <v>2.9711908537516929</v>
+      </c>
+      <c r="AC20" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="14" customFormat="1">
+      <c r="A21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="43">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="18">
-        <v>139</v>
-      </c>
-      <c r="R19" s="20">
-        <f t="shared" si="2"/>
-        <v>0.98581560283687941</v>
-      </c>
-      <c r="S19" s="18"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="20"/>
-      <c r="X19" s="19">
-        <f t="shared" si="3"/>
-        <v>141</v>
-      </c>
-      <c r="Y19" s="19">
-        <f t="shared" si="4"/>
-        <v>139</v>
-      </c>
-      <c r="Z19" s="20">
-        <f t="shared" ref="Z19:Z21" si="8">Y19/X19</f>
-        <v>0.98581560283687941</v>
-      </c>
-      <c r="AA19" s="15">
-        <f>100*(Z19-ALLALL_PERC)</f>
-        <v>5.1071334759278049</v>
-      </c>
-      <c r="AC19" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" s="16" customFormat="1">
-      <c r="A20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="45">
-        <v>1</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="18">
-        <v>135</v>
-      </c>
-      <c r="R20" s="20">
-        <f t="shared" si="2"/>
-        <v>0.95744680851063835</v>
-      </c>
-      <c r="S20" s="18"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="20"/>
-      <c r="X20" s="19">
-        <f t="shared" si="3"/>
-        <v>141</v>
-      </c>
-      <c r="Y20" s="19">
-        <f t="shared" si="4"/>
-        <v>135</v>
-      </c>
-      <c r="Z20" s="20">
-        <f t="shared" si="8"/>
-        <v>0.95744680851063835</v>
-      </c>
-      <c r="AA20" s="15">
-        <f>100*(Z20-ALLALL_PERC)</f>
-        <v>2.2702540433036988</v>
-      </c>
-      <c r="AC20" s="31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" s="16" customFormat="1">
-      <c r="A21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="45">
-        <v>1</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="H21" s="19">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="H21" s="17">
         <v>1276</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="17">
         <v>1208</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="18">
         <f t="shared" si="1"/>
         <v>0.94670846394984332</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="20"/>
-      <c r="X21" s="19">
-        <f t="shared" ref="X21:X30" si="9">D21+H21+L21</f>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="18"/>
+      <c r="X21" s="17">
+        <f t="shared" si="5"/>
         <v>1276</v>
       </c>
-      <c r="Y21" s="19">
-        <f t="shared" ref="Y21:Y30" si="10">E21+I21+M21</f>
+      <c r="Y21" s="17">
+        <f t="shared" si="6"/>
         <v>1208</v>
       </c>
-      <c r="Z21" s="20">
+      <c r="Z21" s="18">
+        <f t="shared" si="7"/>
+        <v>0.94670846394984332</v>
+      </c>
+      <c r="AA21" s="13">
         <f t="shared" si="8"/>
-        <v>0.94670846394984332</v>
-      </c>
-      <c r="AA21" s="15">
-        <f>100*(Z21-ALLALL_PERC)</f>
-        <v>1.1964195872241956</v>
-      </c>
-      <c r="AC21" s="31" t="s">
+        <v>1.8973563976721897</v>
+      </c>
+      <c r="AC21" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="16" customFormat="1">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:29" s="14" customFormat="1">
+      <c r="A22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="43">
         <v>1</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="20"/>
-      <c r="X22" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="15"/>
-      <c r="AC22" s="31" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="L22" s="16">
+        <v>646</v>
+      </c>
+      <c r="M22" s="17">
+        <v>567</v>
+      </c>
+      <c r="N22" s="18">
+        <f t="shared" si="2"/>
+        <v>0.87770897832817341</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="18"/>
+      <c r="X22" s="17">
+        <f t="shared" si="5"/>
+        <v>646</v>
+      </c>
+      <c r="Y22" s="17">
+        <f t="shared" si="6"/>
+        <v>567</v>
+      </c>
+      <c r="Z22" s="18">
+        <f t="shared" si="7"/>
+        <v>0.87770897832817341</v>
+      </c>
+      <c r="AA22" s="13">
+        <f t="shared" si="8"/>
+        <v>-5.0025921644948017</v>
+      </c>
+      <c r="AC22" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="16" customFormat="1">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:29" s="14" customFormat="1">
+      <c r="A23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="43">
         <v>1</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="20"/>
-      <c r="X23" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="15"/>
-      <c r="AC23" s="31" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="17">
+        <v>573</v>
+      </c>
+      <c r="U23" s="17">
+        <v>526</v>
+      </c>
+      <c r="V23" s="18">
+        <f t="shared" si="4"/>
+        <v>0.91797556719022688</v>
+      </c>
+      <c r="X23" s="17">
+        <f t="shared" si="5"/>
+        <v>573</v>
+      </c>
+      <c r="Y23" s="17">
+        <f t="shared" si="6"/>
+        <v>526</v>
+      </c>
+      <c r="Z23" s="18">
+        <f t="shared" si="7"/>
+        <v>0.91797556719022688</v>
+      </c>
+      <c r="AA23" s="13">
+        <f t="shared" si="8"/>
+        <v>-0.97593327828945364</v>
+      </c>
+      <c r="AC23" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="16" customFormat="1">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:29" s="14" customFormat="1">
+      <c r="A24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="43">
         <v>1</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="20"/>
-      <c r="X24" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="15"/>
-      <c r="AC24" s="31" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="17">
+        <v>573</v>
+      </c>
+      <c r="U24" s="17">
+        <v>558</v>
+      </c>
+      <c r="V24" s="18">
+        <f t="shared" si="4"/>
+        <v>0.97382198952879584</v>
+      </c>
+      <c r="X24" s="17">
+        <f t="shared" si="5"/>
+        <v>573</v>
+      </c>
+      <c r="Y24" s="17">
+        <f t="shared" si="6"/>
+        <v>558</v>
+      </c>
+      <c r="Z24" s="18">
+        <f t="shared" si="7"/>
+        <v>0.97382198952879584</v>
+      </c>
+      <c r="AA24" s="13">
+        <f t="shared" si="8"/>
+        <v>4.6087089555674421</v>
+      </c>
+      <c r="AC24" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="16" customFormat="1">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:29" s="14" customFormat="1">
+      <c r="A25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="43">
         <v>1</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="20"/>
-      <c r="X25" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="15"/>
-      <c r="AC25" s="31" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="17">
+        <v>573</v>
+      </c>
+      <c r="U25" s="17">
+        <v>518</v>
+      </c>
+      <c r="V25" s="18">
+        <f t="shared" si="4"/>
+        <v>0.90401396160558467</v>
+      </c>
+      <c r="X25" s="17">
+        <f t="shared" si="5"/>
+        <v>573</v>
+      </c>
+      <c r="Y25" s="17">
+        <f t="shared" si="6"/>
+        <v>518</v>
+      </c>
+      <c r="Z25" s="18">
+        <f t="shared" si="7"/>
+        <v>0.90401396160558467</v>
+      </c>
+      <c r="AA25" s="13">
+        <f t="shared" si="8"/>
+        <v>-2.3720938367536748</v>
+      </c>
+      <c r="AC25" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="16" customFormat="1">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:29" s="14" customFormat="1">
+      <c r="A26" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="43">
         <v>1</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="H26" s="19">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="H26" s="17">
         <v>1277</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="17">
         <v>1225</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="18">
         <f t="shared" si="1"/>
         <v>0.9592795614722005</v>
       </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="20"/>
-      <c r="X26" s="19">
-        <f t="shared" si="9"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="18"/>
+      <c r="X26" s="17">
+        <f t="shared" si="5"/>
         <v>1277</v>
       </c>
-      <c r="Y26" s="19">
-        <f t="shared" si="10"/>
+      <c r="Y26" s="17">
+        <f t="shared" si="6"/>
         <v>1225</v>
       </c>
-      <c r="Z26" s="20">
-        <f t="shared" ref="Z26:Z29" si="11">Y26/X26</f>
+      <c r="Z26" s="18">
+        <f t="shared" si="7"/>
         <v>0.9592795614722005</v>
       </c>
-      <c r="AA26" s="15">
-        <f>100*(Z26-ALLALL_PERC)</f>
-        <v>2.4535293394599145</v>
-      </c>
-      <c r="AC26" s="31" t="s">
+      <c r="AA26" s="13">
+        <f t="shared" si="8"/>
+        <v>3.1544661499079085</v>
+      </c>
+      <c r="AC26" s="29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="16" customFormat="1">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:29" s="14" customFormat="1">
+      <c r="A27" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="43">
         <v>1</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="17">
         <v>503</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="17">
         <v>445</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="18">
         <f t="shared" si="0"/>
         <v>0.88469184890656061</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="20"/>
-      <c r="X27" s="19">
-        <f t="shared" si="9"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="18"/>
+      <c r="X27" s="17">
+        <f t="shared" si="5"/>
         <v>503</v>
       </c>
-      <c r="Y27" s="19">
-        <f t="shared" si="10"/>
+      <c r="Y27" s="17">
+        <f t="shared" si="6"/>
         <v>445</v>
       </c>
-      <c r="Z27" s="20">
-        <f t="shared" si="11"/>
+      <c r="Z27" s="18">
+        <f t="shared" si="7"/>
         <v>0.88469184890656061</v>
       </c>
-      <c r="AA27" s="15">
-        <f>100*(Z27-ALLALL_PERC)</f>
-        <v>-5.0052419171040752</v>
-      </c>
-      <c r="AC27" s="31" t="s">
+      <c r="AA27" s="13">
+        <f t="shared" si="8"/>
+        <v>-4.3043051066560807</v>
+      </c>
+      <c r="AC27" s="29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="16" customFormat="1">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:29" s="14" customFormat="1">
+      <c r="A28" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="43">
         <v>1</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="17">
         <v>503</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="17">
         <v>490</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="18">
         <f t="shared" si="0"/>
         <v>0.97415506958250497</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="20"/>
-      <c r="X28" s="19">
-        <f t="shared" si="9"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="18"/>
+      <c r="X28" s="17">
+        <f t="shared" si="5"/>
         <v>503</v>
       </c>
-      <c r="Y28" s="19">
-        <f t="shared" si="10"/>
+      <c r="Y28" s="17">
+        <f t="shared" si="6"/>
         <v>490</v>
       </c>
-      <c r="Z28" s="20">
-        <f t="shared" si="11"/>
+      <c r="Z28" s="18">
+        <f t="shared" si="7"/>
         <v>0.97415506958250497</v>
       </c>
-      <c r="AA28" s="15">
-        <f>100*(Z28-ALLALL_PERC)</f>
-        <v>3.9410801504903614</v>
-      </c>
-      <c r="AC28" s="31" t="s">
+      <c r="AA28" s="13">
+        <f t="shared" si="8"/>
+        <v>4.6420169609383555</v>
+      </c>
+      <c r="AC28" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="16" customFormat="1">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:29" s="14" customFormat="1">
+      <c r="A29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="43">
         <v>1</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="17">
         <v>503</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="17">
         <v>486</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="18">
         <f t="shared" si="0"/>
         <v>0.96620278330019882</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="20"/>
-      <c r="X29" s="19">
-        <f t="shared" si="9"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="18"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="18"/>
+      <c r="X29" s="17">
+        <f t="shared" si="5"/>
         <v>503</v>
       </c>
-      <c r="Y29" s="19">
-        <f t="shared" si="10"/>
+      <c r="Y29" s="17">
+        <f t="shared" si="6"/>
         <v>486</v>
       </c>
-      <c r="Z29" s="20">
-        <f t="shared" si="11"/>
+      <c r="Z29" s="18">
+        <f t="shared" si="7"/>
         <v>0.96620278330019882</v>
       </c>
-      <c r="AA29" s="15">
-        <f>100*(Z29-ALLALL_PERC)</f>
-        <v>3.1458515222597461</v>
-      </c>
-      <c r="AC29" s="31" t="s">
+      <c r="AA29" s="13">
+        <f t="shared" si="8"/>
+        <v>3.8467883327077401</v>
+      </c>
+      <c r="AC29" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="16" customFormat="1">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:29" s="14" customFormat="1">
+      <c r="A30" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="43">
         <v>1</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="H30" s="19">
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="H30" s="17">
         <v>1277</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="17">
         <v>1200</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="18">
         <f t="shared" si="1"/>
         <v>0.93970242756460454</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="20"/>
-      <c r="X30" s="19">
-        <f t="shared" si="9"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="18"/>
+      <c r="X30" s="17">
+        <f t="shared" si="5"/>
         <v>1277</v>
       </c>
-      <c r="Y30" s="19">
-        <f t="shared" si="10"/>
+      <c r="Y30" s="17">
+        <f t="shared" si="6"/>
         <v>1200</v>
       </c>
-      <c r="Z30" s="20">
-        <f t="shared" ref="Z30" si="12">Y30/X30</f>
+      <c r="Z30" s="18">
+        <f t="shared" si="7"/>
         <v>0.93970242756460454</v>
       </c>
-      <c r="AA30" s="15">
-        <f>100*(Z30-ALLALL_PERC)</f>
-        <v>0.49581594870031775</v>
-      </c>
-      <c r="AC30" s="31" t="s">
+      <c r="AA30" s="13">
+        <f t="shared" si="8"/>
+        <v>1.1967527591483118</v>
+      </c>
+      <c r="AC30" s="29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:29">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
@@ -2904,7 +3144,7 @@
       <c r="Z32"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -2930,7 +3170,7 @@
       <c r="Z33"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -2966,7 +3206,7 @@
     <mergeCell ref="T4:V4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2977,882 +3217,931 @@
   </sheetPr>
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W49" sqref="W49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" style="26" customWidth="1"/>
     <col min="2" max="2" width="2.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="1.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="33" customWidth="1"/>
     <col min="5" max="5" width="1.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" style="35" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" style="33" customWidth="1"/>
     <col min="7" max="7" width="1.44140625" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="33" customWidth="1"/>
     <col min="9" max="9" width="1.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" style="33" customWidth="1"/>
     <col min="11" max="11" width="1.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" style="35" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" style="33" customWidth="1"/>
     <col min="13" max="13" width="1.44140625" customWidth="1"/>
-    <col min="14" max="14" width="8.21875" style="37" customWidth="1"/>
-    <col min="15" max="15" width="5.77734375" style="53" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" style="35" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" style="51" customWidth="1"/>
     <col min="16" max="16" width="1.109375" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="29" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="32"/>
-    </row>
-    <row r="2" spans="1:29" s="16" customFormat="1" ht="9" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="18"/>
-      <c r="D2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="33"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="53"/>
-      <c r="Q2" s="29"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:29" s="14" customFormat="1" ht="9" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="16"/>
+      <c r="D2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="31"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="51"/>
+      <c r="Q2" s="27"/>
     </row>
     <row r="3" spans="1:29" ht="97.8" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-    </row>
-    <row r="4" spans="1:29" s="21" customFormat="1">
-      <c r="A4" s="26" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+    </row>
+    <row r="4" spans="1:29" s="19" customFormat="1">
+      <c r="A4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="34" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="34" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="53"/>
-      <c r="Q4" s="30"/>
-    </row>
-    <row r="5" spans="1:29" s="21" customFormat="1" ht="6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="44"/>
-      <c r="D5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="34"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="53"/>
-      <c r="Q5" s="30"/>
-    </row>
-    <row r="6" spans="1:29" s="16" customFormat="1">
-      <c r="A6" s="16" t="s">
+      <c r="O4" s="51"/>
+      <c r="Q4" s="28"/>
+    </row>
+    <row r="5" spans="1:29" s="19" customFormat="1" ht="6" customHeight="1">
+      <c r="A5" s="24"/>
+      <c r="B5" s="42"/>
+      <c r="D5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="32"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="51"/>
+      <c r="Q5" s="28"/>
+    </row>
+    <row r="6" spans="1:29" s="14" customFormat="1">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="D6" s="35">
+      <c r="B6" s="43"/>
+      <c r="D6" s="33">
         <v>0.75600000000000001</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="33">
         <v>0.88100000000000001</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="35">
+      <c r="H6" s="16">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="33">
         <v>0.871</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="33"/>
-      <c r="N6" s="38">
-        <f>(D6+F6+J6)/3</f>
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="O6" s="53"/>
-      <c r="Q6" s="29" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="31">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="N6" s="36">
+        <f>AVERAGE(D6,F6,H6,J6,L6)</f>
+        <v>0.83059999999999989</v>
+      </c>
+      <c r="O6" s="51"/>
+      <c r="Q6" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="16" customFormat="1" ht="6" customHeight="1">
-      <c r="B7" s="45"/>
-      <c r="D7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="33"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="53"/>
-      <c r="Q7" s="29"/>
-    </row>
-    <row r="8" spans="1:29" s="16" customFormat="1">
-      <c r="A8" s="17" t="s">
+    <row r="7" spans="1:29" s="14" customFormat="1" ht="6" customHeight="1">
+      <c r="B7" s="43"/>
+      <c r="D7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="31"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="51"/>
+      <c r="Q7" s="27"/>
+    </row>
+    <row r="8" spans="1:29" s="14" customFormat="1">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="43">
         <v>5</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="33">
         <v>0.66300000000000003</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>0.79700000000000004</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="35">
+      <c r="H8" s="16">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="33">
         <v>0.88100000000000001</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="33"/>
-      <c r="N8" s="38">
-        <f>(D8+F8+J8)/3</f>
-        <v>0.78033333333333343</v>
-      </c>
-      <c r="O8" s="53">
-        <f t="shared" ref="O8:O29" si="0">N8-ALLALL_CK</f>
-        <v>-5.5666666666666531E-2</v>
-      </c>
-      <c r="Q8" s="31" t="s">
+      <c r="K8" s="16"/>
+      <c r="L8" s="31">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="N8" s="36">
+        <f t="shared" ref="N7:N29" si="0">AVERAGE(D8,F8,H8,J8,L8)</f>
+        <v>0.7088000000000001</v>
+      </c>
+      <c r="O8" s="51">
+        <f t="shared" ref="O8:O29" si="1">N8-ALLALL_CK</f>
+        <v>-0.1217999999999998</v>
+      </c>
+      <c r="Q8" s="29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="16" customFormat="1">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:29" s="14" customFormat="1">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="43">
         <v>5</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="33">
         <v>0.379</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>0.85599999999999998</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="35">
+      <c r="H9" s="16">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="33">
         <v>0.78400000000000003</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="33"/>
-      <c r="N9" s="38">
-        <f>(D9+F9+J9)/3</f>
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="O9" s="53">
+      <c r="K9" s="16"/>
+      <c r="L9" s="31">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="N9" s="36">
         <f t="shared" si="0"/>
-        <v>-0.16299999999999992</v>
-      </c>
-      <c r="Q9" s="31" t="s">
+        <v>0.63619999999999999</v>
+      </c>
+      <c r="O9" s="51">
+        <f t="shared" si="1"/>
+        <v>-0.19439999999999991</v>
+      </c>
+      <c r="Q9" s="29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="16" customFormat="1">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:29" s="14" customFormat="1">
+      <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="43">
         <v>5</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="33">
         <v>0.63900000000000001</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>0.86499999999999999</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="35">
+      <c r="H10" s="16">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="33">
         <v>0.70799999999999996</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="33"/>
-      <c r="N10" s="38">
-        <f>(D10+F10+J10)/3</f>
-        <v>0.73733333333333329</v>
-      </c>
-      <c r="O10" s="53">
+      <c r="K10" s="16"/>
+      <c r="L10" s="31">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="N10" s="36">
         <f t="shared" si="0"/>
-        <v>-9.866666666666668E-2</v>
-      </c>
-      <c r="Q10" s="31" t="s">
+        <v>0.748</v>
+      </c>
+      <c r="O10" s="51">
+        <f t="shared" si="1"/>
+        <v>-8.2599999999999896E-2</v>
+      </c>
+      <c r="Q10" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="16" customFormat="1">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:29" s="14" customFormat="1">
+      <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="43">
         <v>4</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="33">
         <v>0.56100000000000005</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="33">
         <v>0.83799999999999997</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="35">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="33">
         <v>0.77200000000000002</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="33"/>
-      <c r="N11" s="38">
-        <f>(D11+F11+J11)/3</f>
-        <v>0.72366666666666679</v>
-      </c>
-      <c r="O11" s="53">
+      <c r="K11" s="16"/>
+      <c r="L11" s="31">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="N11" s="36">
         <f t="shared" si="0"/>
-        <v>-0.11233333333333317</v>
-      </c>
-      <c r="Q11" s="31" t="s">
+        <v>0.71450000000000014</v>
+      </c>
+      <c r="O11" s="51">
+        <f t="shared" si="1"/>
+        <v>-0.11609999999999976</v>
+      </c>
+      <c r="Q11" s="29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="16" customFormat="1">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:29" s="14" customFormat="1">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="43">
         <v>4</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="33">
         <v>0</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="33">
         <v>0.46200000000000002</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="33"/>
-      <c r="N12" s="38">
-        <f>(D12+F12+J12)/2</f>
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="O12" s="53">
+      <c r="H12" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="31">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="N12" s="36">
         <f t="shared" si="0"/>
-        <v>-0.60499999999999998</v>
-      </c>
-      <c r="Q12" s="31" t="s">
+        <v>0.47700000000000004</v>
+      </c>
+      <c r="O12" s="51">
+        <f t="shared" si="1"/>
+        <v>-0.35359999999999986</v>
+      </c>
+      <c r="Q12" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="16" customFormat="1">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:29" s="14" customFormat="1">
+      <c r="A13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="43">
         <v>1</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="33"/>
-      <c r="N13" s="38">
-        <f t="shared" ref="N13:N19" si="1">(D13+F13+J13)/B13</f>
+      <c r="D13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="31">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="N13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="O13" s="51">
+        <f t="shared" si="1"/>
+        <v>-0.22459999999999991</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="14" customFormat="1">
+      <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="53">
+      <c r="B14" s="43">
+        <v>1</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="F14" s="33">
+        <v>0.79</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="31"/>
+      <c r="N14" s="36">
         <f t="shared" si="0"/>
-        <v>-0.83599999999999997</v>
-      </c>
-      <c r="Q13" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" s="16" customFormat="1">
-      <c r="A14" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="45">
+        <v>0.79</v>
+      </c>
+      <c r="O14" s="51">
+        <f t="shared" si="1"/>
+        <v>-4.0599999999999858E-2</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="14" customFormat="1">
+      <c r="A15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="F14" s="35">
-        <v>0.79</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="33"/>
-      <c r="N14" s="38">
+      <c r="B15" s="43">
+        <v>1</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="F15" s="33">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="31"/>
+      <c r="N15" s="36">
+        <f t="shared" si="0"/>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="O15" s="51">
         <f t="shared" si="1"/>
-        <v>0.79</v>
-      </c>
-      <c r="O14" s="53">
+        <v>-0.27559999999999985</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="14" customFormat="1">
+      <c r="A16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="43">
+        <v>1</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="33">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="31"/>
+      <c r="N16" s="36">
         <f t="shared" si="0"/>
-        <v>-4.599999999999993E-2</v>
-      </c>
-      <c r="Q14" s="31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" s="16" customFormat="1">
-      <c r="A15" s="17" t="s">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="O16" s="51">
+        <f t="shared" si="1"/>
+        <v>-3.9599999999999858E-2</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="14" customFormat="1">
+      <c r="A17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="43">
         <v>1</v>
       </c>
-      <c r="B15" s="45">
+      <c r="D17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="H17" s="16">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="31"/>
+      <c r="N17" s="36">
+        <f t="shared" si="0"/>
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="O17" s="51">
+        <f t="shared" si="1"/>
+        <v>-8.75999999999999E-2</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="14" customFormat="1">
+      <c r="A18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="43">
         <v>1</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="F15" s="35">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="33"/>
-      <c r="N15" s="38">
+      <c r="D18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="33">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="31"/>
+      <c r="N18" s="36">
+        <f t="shared" si="0"/>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="O18" s="51">
         <f t="shared" si="1"/>
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="O15" s="53">
+        <v>3.6400000000000099E-2</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="14" customFormat="1">
+      <c r="A19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="43">
+        <v>1</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="33">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="31"/>
+      <c r="N19" s="36">
         <f t="shared" si="0"/>
-        <v>-0.28099999999999992</v>
-      </c>
-      <c r="Q15" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" s="16" customFormat="1">
-      <c r="A16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="45">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="O19" s="51">
+        <f t="shared" si="1"/>
+        <v>-0.28159999999999985</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="14" customFormat="1">
+      <c r="A20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="43">
         <v>1</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="35">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="33"/>
-      <c r="N16" s="38">
+      <c r="D20" s="31"/>
+      <c r="F20" s="33">
+        <v>0.748</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="31"/>
+      <c r="N20" s="36">
+        <f t="shared" si="0"/>
+        <v>0.748</v>
+      </c>
+      <c r="O20" s="51">
         <f t="shared" si="1"/>
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="O16" s="53">
+        <v>-8.2599999999999896E-2</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="14" customFormat="1">
+      <c r="A21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="43">
+        <v>1</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="H21" s="31">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="31"/>
+      <c r="N21" s="36">
         <f t="shared" si="0"/>
-        <v>-4.4999999999999929E-2</v>
-      </c>
-      <c r="Q16" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="16" customFormat="1">
-      <c r="A17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="45">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="O21" s="51">
+        <f t="shared" si="1"/>
+        <v>-0.13459999999999994</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="14" customFormat="1">
+      <c r="A22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="43">
         <v>1</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="33"/>
-      <c r="N17" s="38">
+      <c r="D22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="31">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="N22" s="36">
+        <f t="shared" si="0"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="O22" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="53">
+        <v>-0.10559999999999992</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="14" customFormat="1">
+      <c r="A23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="43">
+        <v>1</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="31">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="N23" s="36">
         <f t="shared" si="0"/>
-        <v>-0.83599999999999997</v>
-      </c>
-      <c r="Q17" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="16" customFormat="1">
-      <c r="A18" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="45">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="O23" s="51">
+        <f t="shared" si="1"/>
+        <v>-0.19259999999999988</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="14" customFormat="1">
+      <c r="A24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="43">
         <v>1</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="35">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="33"/>
-      <c r="N18" s="38">
+      <c r="D24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="31">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="N24" s="36">
+        <f t="shared" si="0"/>
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="O24" s="51">
         <f t="shared" si="1"/>
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="O18" s="53">
+        <v>-0.4035999999999999</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="14" customFormat="1">
+      <c r="A25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="43">
+        <v>1</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="F25" s="33">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="31"/>
+      <c r="N25" s="36">
         <f t="shared" si="0"/>
-        <v>3.1000000000000028E-2</v>
-      </c>
-      <c r="Q18" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="16" customFormat="1">
-      <c r="A19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="45">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="O25" s="51">
+        <f t="shared" si="1"/>
+        <v>-6.5599999999999881E-2</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="14" customFormat="1">
+      <c r="A26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="43">
         <v>1</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="35">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="33"/>
-      <c r="N19" s="38">
+      <c r="D26" s="33">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="31"/>
+      <c r="N26" s="36">
+        <f t="shared" si="0"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O26" s="51">
         <f t="shared" si="1"/>
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="O19" s="53">
+        <v>-0.35559999999999992</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="14" customFormat="1">
+      <c r="A27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="43">
+        <v>1</v>
+      </c>
+      <c r="D27" s="33">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="31"/>
+      <c r="N27" s="36">
         <f t="shared" si="0"/>
-        <v>-0.28699999999999992</v>
-      </c>
-      <c r="Q19" s="31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="16" customFormat="1">
-      <c r="A20" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="45">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="O27" s="51">
+        <f t="shared" si="1"/>
+        <v>-0.32459999999999989</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="14" customFormat="1">
+      <c r="A28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="43">
         <v>1</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="F20" s="35">
-        <v>0.748</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="33"/>
-      <c r="N20" s="38">
-        <f t="shared" ref="N20:N29" si="2">(D20+F20+H20)/B20</f>
-        <v>0.748</v>
-      </c>
-      <c r="O20" s="53">
+      <c r="D28" s="33">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="31"/>
+      <c r="N28" s="36">
         <f t="shared" si="0"/>
-        <v>-8.7999999999999967E-2</v>
-      </c>
-      <c r="Q20" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="16" customFormat="1">
-      <c r="A21" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="45">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="O28" s="51">
+        <f t="shared" si="1"/>
+        <v>-0.52459999999999996</v>
+      </c>
+      <c r="Q28" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="14" customFormat="1">
+      <c r="A29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="43">
         <v>1</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="33"/>
-      <c r="N21" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="53">
+      <c r="D29" s="31"/>
+      <c r="F29" s="33">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="31"/>
+      <c r="N29" s="36">
         <f t="shared" si="0"/>
-        <v>-0.83599999999999997</v>
-      </c>
-      <c r="Q21" s="31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="16" customFormat="1">
-      <c r="A22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="45">
-        <v>1</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="33"/>
-      <c r="N22" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="53">
-        <f t="shared" si="0"/>
-        <v>-0.83599999999999997</v>
-      </c>
-      <c r="Q22" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="16" customFormat="1">
-      <c r="A23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="45">
-        <v>1</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="33"/>
-      <c r="N23" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="53">
-        <f t="shared" si="0"/>
-        <v>-0.83599999999999997</v>
-      </c>
-      <c r="Q23" s="31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="16" customFormat="1">
-      <c r="A24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="45">
-        <v>1</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="33"/>
-      <c r="N24" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="53">
-        <f t="shared" si="0"/>
-        <v>-0.83599999999999997</v>
-      </c>
-      <c r="Q24" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="16" customFormat="1">
-      <c r="A25" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="45">
-        <v>1</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="F25" s="35">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="33"/>
-      <c r="N25" s="38">
-        <f t="shared" si="2"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="O25" s="53">
-        <f t="shared" si="0"/>
-        <v>-7.0999999999999952E-2</v>
-      </c>
-      <c r="Q25" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="16" customFormat="1">
-      <c r="A26" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="45">
-        <v>1</v>
-      </c>
-      <c r="D26" s="35">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="33"/>
-      <c r="N26" s="38">
-        <f t="shared" si="2"/>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="O26" s="53">
-        <f t="shared" si="0"/>
-        <v>-0.36099999999999999</v>
-      </c>
-      <c r="Q26" s="31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="16" customFormat="1">
-      <c r="A27" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="45">
-        <v>1</v>
-      </c>
-      <c r="D27" s="35">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="33"/>
-      <c r="N27" s="38">
-        <f t="shared" si="2"/>
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="O27" s="53">
-        <f t="shared" si="0"/>
-        <v>-0.32999999999999996</v>
-      </c>
-      <c r="Q27" s="31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="16" customFormat="1">
-      <c r="A28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="45">
-        <v>1</v>
-      </c>
-      <c r="D28" s="35">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="33"/>
-      <c r="N28" s="38">
-        <f t="shared" si="2"/>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="O28" s="53">
-        <f t="shared" si="0"/>
-        <v>-0.53</v>
-      </c>
-      <c r="Q28" s="31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="16" customFormat="1">
-      <c r="A29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="45">
-        <v>1</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="F29" s="35">
         <v>0.64200000000000002</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="33"/>
-      <c r="N29" s="38">
-        <f t="shared" si="2"/>
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="O29" s="53">
-        <f t="shared" si="0"/>
-        <v>-0.19399999999999995</v>
-      </c>
-      <c r="Q29" s="31" t="s">
+      <c r="O29" s="51">
+        <f t="shared" si="1"/>
+        <v>-0.18859999999999988</v>
+      </c>
+      <c r="Q29" s="29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="16" customFormat="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="18"/>
-      <c r="D30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="33"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="53"/>
-      <c r="Q30" s="29"/>
+    <row r="30" spans="1:17" s="14" customFormat="1">
+      <c r="A30" s="23"/>
+      <c r="B30" s="16"/>
+      <c r="D30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="31"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="51"/>
+      <c r="Q30" s="27"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="39" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="27"/>
+      <c r="A32" s="25"/>
       <c r="B32"/>
-      <c r="D32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="N32" s="40"/>
-    </row>
-    <row r="33" spans="1:17" s="15" customFormat="1">
-      <c r="A33" s="27"/>
+      <c r="D32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="N32" s="38"/>
+    </row>
+    <row r="33" spans="1:17" s="13" customFormat="1">
+      <c r="A33" s="25"/>
       <c r="B33"/>
       <c r="C33"/>
-      <c r="D33" s="36"/>
+      <c r="D33" s="34"/>
       <c r="E33"/>
-      <c r="F33" s="36"/>
+      <c r="F33" s="34"/>
       <c r="G33"/>
-      <c r="H33" s="35"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="35"/>
+      <c r="J33" s="33"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="35"/>
+      <c r="L33" s="33"/>
       <c r="M33"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="53"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="51"/>
       <c r="P33"/>
-      <c r="Q33" s="29"/>
-    </row>
-    <row r="34" spans="1:17" s="15" customFormat="1">
-      <c r="A34" s="27"/>
+      <c r="Q33" s="27"/>
+    </row>
+    <row r="34" spans="1:17" s="13" customFormat="1">
+      <c r="A34" s="25"/>
       <c r="B34"/>
       <c r="C34"/>
-      <c r="D34" s="36"/>
+      <c r="D34" s="34"/>
       <c r="E34"/>
-      <c r="F34" s="36"/>
+      <c r="F34" s="34"/>
       <c r="G34"/>
-      <c r="H34" s="35"/>
+      <c r="H34" s="33"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="35"/>
+      <c r="J34" s="33"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="35"/>
+      <c r="L34" s="33"/>
       <c r="M34"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="53"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="51"/>
       <c r="P34"/>
-      <c r="Q34" s="29"/>
+      <c r="Q34" s="27"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="E39" s="14"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="E40" s="14"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="E41" s="14"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="E42" s="14"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="E43" s="14"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="E44" s="14"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="E45" s="14"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="E46" s="14"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="E47" s="14"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="E48" s="14"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="14"/>
+      <c r="E49" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3863,8 +4152,8 @@
   </sheetPr>
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3872,183 +4161,183 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="1.44140625" customWidth="1"/>
     <col min="3" max="4" width="8.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="6" customWidth="1"/>
     <col min="6" max="6" width="1.44140625" customWidth="1"/>
     <col min="7" max="8" width="8.21875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" style="6" customWidth="1"/>
     <col min="10" max="10" width="1.44140625" customWidth="1"/>
     <col min="11" max="12" width="8.21875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.21875" style="6" customWidth="1"/>
     <col min="14" max="14" width="1.44140625" customWidth="1"/>
     <col min="15" max="16" width="8.21875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="8.21875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.21875" style="8" customWidth="1"/>
     <col min="18" max="18" width="1.44140625" customWidth="1"/>
-    <col min="19" max="20" width="8.21875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="8.21875" style="9" customWidth="1"/>
+    <col min="19" max="20" width="8.21875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="8.21875" style="6" customWidth="1"/>
     <col min="22" max="22" width="1.44140625" customWidth="1"/>
     <col min="23" max="24" width="8.5546875" style="4" customWidth="1"/>
-    <col min="25" max="25" width="8.5546875" style="7" customWidth="1"/>
+    <col min="25" max="25" width="8.5546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="7.2" customHeight="1"/>
     <row r="3" spans="1:29" ht="49.8" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="G4" s="56" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="G4" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="K4" s="56" t="s">
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="K4" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="O4" s="56" t="s">
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="O4" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="S4" s="56" t="s">
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="S4" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="W4" s="56" t="s">
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="W4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="50" t="s">
+      <c r="F5" s="50"/>
+      <c r="G5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="50" t="s">
+      <c r="J5" s="50"/>
+      <c r="K5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="52"/>
-      <c r="O5" s="50" t="s">
+      <c r="N5" s="50"/>
+      <c r="O5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="52"/>
-      <c r="S5" s="50" t="s">
+      <c r="R5" s="50"/>
+      <c r="S5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="50" t="s">
+      <c r="T5" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="51" t="s">
+      <c r="U5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="52"/>
-      <c r="W5" s="50" t="s">
+      <c r="V5" s="50"/>
+      <c r="W5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="50" t="s">
+      <c r="X5" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="51" t="s">
+      <c r="Y5" s="49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="7"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="8"/>
+      <c r="M6" s="7"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="8"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="10"/>
+      <c r="Q6" s="7"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="7"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="8"/>
+      <c r="Y6" s="7"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="1" t="s">
@@ -4060,7 +4349,7 @@
       <c r="D7" s="4">
         <v>417</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f t="shared" ref="E7:E13" si="0">D7/C7</f>
         <v>0.88347457627118642</v>
       </c>
@@ -4070,31 +4359,51 @@
       <c r="H7" s="4">
         <v>1244</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f t="shared" ref="I7:I13" si="1">H7/G7</f>
         <v>0.91537895511405443</v>
       </c>
+      <c r="K7" s="4">
+        <v>366</v>
+      </c>
+      <c r="L7" s="4">
+        <v>338</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" ref="M7:M13" si="2">L7/K7</f>
+        <v>0.92349726775956287</v>
+      </c>
       <c r="O7" s="4">
         <v>204</v>
       </c>
       <c r="P7" s="4">
         <v>189</v>
       </c>
-      <c r="Q7" s="7">
-        <f t="shared" ref="Q7:Q13" si="2">P7/O7</f>
+      <c r="Q7" s="6">
+        <f t="shared" ref="Q7:Q13" si="3">P7/O7</f>
         <v>0.92647058823529416</v>
       </c>
+      <c r="S7" s="4">
+        <v>342</v>
+      </c>
+      <c r="T7" s="4">
+        <v>307</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" ref="U7:U13" si="4">T7/S7</f>
+        <v>0.89766081871345027</v>
+      </c>
       <c r="W7" s="4">
-        <f t="shared" ref="W7:X13" si="3">C7+G7+K7</f>
-        <v>1831</v>
+        <f>C7+G7+K7+O7+S7</f>
+        <v>2743</v>
       </c>
       <c r="X7" s="4">
-        <f t="shared" si="3"/>
-        <v>1661</v>
-      </c>
-      <c r="Y7" s="7">
-        <f t="shared" ref="Y7:Y13" si="4">X7/W7</f>
-        <v>0.90715456034953579</v>
+        <f>D7+H7+L7+P7+T7</f>
+        <v>2495</v>
+      </c>
+      <c r="Y7" s="6">
+        <f t="shared" ref="Y7:Y13" si="5">X7/W7</f>
+        <v>0.9095880422894641</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -4107,7 +4416,7 @@
       <c r="D8" s="4">
         <v>539</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>0.89833333333333332</v>
       </c>
@@ -4117,31 +4426,51 @@
       <c r="H8" s="4">
         <v>1428</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f t="shared" si="1"/>
         <v>0.92307692307692313</v>
       </c>
+      <c r="K8" s="4">
+        <v>420</v>
+      </c>
+      <c r="L8" s="4">
+        <v>363</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="2"/>
+        <v>0.86428571428571432</v>
+      </c>
       <c r="O8" s="4">
         <v>266</v>
       </c>
       <c r="P8" s="4">
         <v>253</v>
       </c>
-      <c r="Q8" s="7">
-        <f t="shared" si="2"/>
+      <c r="Q8" s="6">
+        <f t="shared" si="3"/>
         <v>0.95112781954887216</v>
       </c>
+      <c r="S8" s="4">
+        <v>522</v>
+      </c>
+      <c r="T8" s="4">
+        <v>459</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="4"/>
+        <v>0.87931034482758619</v>
+      </c>
       <c r="W8" s="4">
-        <f t="shared" si="3"/>
-        <v>2147</v>
+        <f t="shared" ref="W8:W13" si="6">C8+G8+K8+O8+S8</f>
+        <v>3355</v>
       </c>
       <c r="X8" s="4">
-        <f t="shared" si="3"/>
-        <v>1967</v>
-      </c>
-      <c r="Y8" s="7">
-        <f t="shared" si="4"/>
-        <v>0.91616208663251053</v>
+        <f t="shared" ref="X8:X13" si="7">D8+H8+L8+P8+T8</f>
+        <v>3042</v>
+      </c>
+      <c r="Y8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.90670640834575256</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -4154,7 +4483,7 @@
       <c r="D9" s="4">
         <v>692</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>0.89175257731958768</v>
       </c>
@@ -4164,31 +4493,51 @@
       <c r="H9" s="4">
         <v>2089</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" si="1"/>
         <v>0.94739229024943306</v>
       </c>
+      <c r="K9" s="4">
+        <v>426</v>
+      </c>
+      <c r="L9" s="4">
+        <v>387</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.90845070422535212</v>
+      </c>
       <c r="O9" s="4">
         <v>98</v>
       </c>
       <c r="P9" s="4">
         <v>90</v>
       </c>
-      <c r="Q9" s="7">
-        <f t="shared" si="2"/>
+      <c r="Q9" s="6">
+        <f t="shared" si="3"/>
         <v>0.91836734693877553</v>
       </c>
+      <c r="S9" s="4">
+        <v>747</v>
+      </c>
+      <c r="T9" s="4">
+        <v>662</v>
+      </c>
+      <c r="U9" s="6">
+        <f t="shared" si="4"/>
+        <v>0.88621151271753684</v>
+      </c>
       <c r="W9" s="4">
-        <f t="shared" si="3"/>
-        <v>2981</v>
+        <f t="shared" si="6"/>
+        <v>4252</v>
       </c>
       <c r="X9" s="4">
-        <f t="shared" si="3"/>
-        <v>2781</v>
-      </c>
-      <c r="Y9" s="7">
-        <f t="shared" si="4"/>
-        <v>0.93290841999329088</v>
+        <f t="shared" si="7"/>
+        <v>3920</v>
+      </c>
+      <c r="Y9" s="6">
+        <f t="shared" si="5"/>
+        <v>0.9219190968955786</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -4201,7 +4550,7 @@
       <c r="D10" s="4">
         <v>68</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>0.94444444444444442</v>
       </c>
@@ -4211,31 +4560,51 @@
       <c r="H10" s="4">
         <v>1736</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f t="shared" si="1"/>
         <v>0.94863387978142077</v>
       </c>
+      <c r="K10" s="4">
+        <v>132</v>
+      </c>
+      <c r="L10" s="4">
+        <v>118</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="2"/>
+        <v>0.89393939393939392</v>
+      </c>
       <c r="O10" s="4">
         <v>98</v>
       </c>
       <c r="P10" s="4">
         <v>91</v>
       </c>
-      <c r="Q10" s="7">
-        <f t="shared" si="2"/>
+      <c r="Q10" s="6">
+        <f t="shared" si="3"/>
         <v>0.9285714285714286</v>
       </c>
+      <c r="S10" s="4">
+        <v>1080</v>
+      </c>
+      <c r="T10" s="4">
+        <v>995</v>
+      </c>
+      <c r="U10" s="6">
+        <f t="shared" si="4"/>
+        <v>0.92129629629629628</v>
+      </c>
       <c r="W10" s="4">
-        <f t="shared" si="3"/>
-        <v>1902</v>
+        <f t="shared" si="6"/>
+        <v>3212</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" si="3"/>
-        <v>1804</v>
-      </c>
-      <c r="Y10" s="7">
-        <f t="shared" si="4"/>
-        <v>0.94847528916929547</v>
+        <f t="shared" si="7"/>
+        <v>3008</v>
+      </c>
+      <c r="Y10" s="6">
+        <f t="shared" si="5"/>
+        <v>0.93648816936488166</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -4248,7 +4617,7 @@
       <c r="D11" s="4">
         <v>608</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>0.90476190476190477</v>
       </c>
@@ -4258,31 +4627,51 @@
       <c r="H11" s="4">
         <v>2532</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f t="shared" si="1"/>
         <v>0.94477611940298512</v>
       </c>
+      <c r="K11" s="4">
+        <v>852</v>
+      </c>
+      <c r="L11" s="4">
+        <v>773</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.90727699530516437</v>
+      </c>
       <c r="O11" s="4">
         <v>258</v>
       </c>
       <c r="P11" s="4">
         <v>247</v>
       </c>
-      <c r="Q11" s="7">
-        <f t="shared" si="2"/>
+      <c r="Q11" s="6">
+        <f t="shared" si="3"/>
         <v>0.95736434108527135</v>
       </c>
+      <c r="S11" s="4">
+        <v>675</v>
+      </c>
+      <c r="T11" s="4">
+        <v>615</v>
+      </c>
+      <c r="U11" s="6">
+        <f t="shared" si="4"/>
+        <v>0.91111111111111109</v>
+      </c>
       <c r="W11" s="4">
-        <f t="shared" si="3"/>
-        <v>3352</v>
+        <f t="shared" si="6"/>
+        <v>5137</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" si="3"/>
-        <v>3140</v>
-      </c>
-      <c r="Y11" s="7">
-        <f t="shared" si="4"/>
-        <v>0.93675417661097848</v>
+        <f t="shared" si="7"/>
+        <v>4775</v>
+      </c>
+      <c r="Y11" s="6">
+        <f t="shared" si="5"/>
+        <v>0.92953085458438778</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -4295,7 +4684,7 @@
       <c r="D12" s="4">
         <v>947</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>0.9248046875</v>
       </c>
@@ -4305,31 +4694,51 @@
       <c r="H12" s="4">
         <v>890</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f t="shared" si="1"/>
         <v>0.96739130434782605</v>
       </c>
+      <c r="K12" s="4">
+        <v>1392</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1285</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.92313218390804597</v>
+      </c>
       <c r="O12" s="4">
         <v>37</v>
       </c>
       <c r="P12" s="4">
         <v>36</v>
       </c>
-      <c r="Q12" s="7">
-        <f t="shared" si="2"/>
+      <c r="Q12" s="6">
+        <f t="shared" si="3"/>
         <v>0.97297297297297303</v>
       </c>
+      <c r="S12" s="4">
+        <v>693</v>
+      </c>
+      <c r="T12" s="4">
+        <v>651</v>
+      </c>
+      <c r="U12" s="6">
+        <f t="shared" si="4"/>
+        <v>0.93939393939393945</v>
+      </c>
       <c r="W12" s="4">
-        <f t="shared" si="3"/>
-        <v>1944</v>
+        <f t="shared" si="6"/>
+        <v>4066</v>
       </c>
       <c r="X12" s="4">
-        <f t="shared" si="3"/>
-        <v>1837</v>
-      </c>
-      <c r="Y12" s="7">
-        <f t="shared" si="4"/>
-        <v>0.94495884773662553</v>
+        <f t="shared" si="7"/>
+        <v>3809</v>
+      </c>
+      <c r="Y12" s="6">
+        <f t="shared" si="5"/>
+        <v>0.93679291687161825</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -4342,7 +4751,7 @@
       <c r="D13" s="4">
         <v>377</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>0.92176039119804398</v>
       </c>
@@ -4352,35 +4761,55 @@
       <c r="H13" s="4">
         <v>1385</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f t="shared" si="1"/>
         <v>0.96180555555555558</v>
       </c>
+      <c r="K13" s="4">
+        <v>288</v>
+      </c>
+      <c r="L13" s="4">
+        <v>271</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.94097222222222221</v>
+      </c>
       <c r="O13" s="4">
         <v>3</v>
       </c>
       <c r="P13" s="4">
         <v>2</v>
       </c>
-      <c r="Q13" s="7">
-        <f t="shared" si="2"/>
+      <c r="Q13" s="6">
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
+      <c r="S13" s="4">
+        <v>900</v>
+      </c>
+      <c r="T13" s="4">
+        <v>851</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" si="4"/>
+        <v>0.94555555555555559</v>
+      </c>
       <c r="W13" s="4">
-        <f t="shared" si="3"/>
-        <v>1849</v>
+        <f t="shared" si="6"/>
+        <v>3040</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="3"/>
-        <v>1762</v>
-      </c>
-      <c r="Y13" s="7">
-        <f t="shared" si="4"/>
-        <v>0.952947539210384</v>
+        <f t="shared" si="7"/>
+        <v>2886</v>
+      </c>
+      <c r="Y13" s="6">
+        <f t="shared" si="5"/>
+        <v>0.94934210526315788</v>
       </c>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="11"/>
+      <c r="A16" s="9"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -4393,15 +4822,15 @@
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="9"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -4414,15 +4843,15 @@
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
       <c r="W17"/>
       <c r="X17"/>
       <c r="Y17"/>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="9"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -4435,15 +4864,15 @@
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
       <c r="W18"/>
       <c r="X18"/>
       <c r="Y18"/>
     </row>
     <row r="35" spans="10:10">
-      <c r="J35" s="14"/>
+      <c r="J35" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4456,7 +4885,7 @@
     <mergeCell ref="S4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>